--- a/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>WISH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,73 +761,85 @@
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1400</v>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>1400</v>
       </c>
       <c r="M8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O8" s="3">
         <v>1300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>200</v>
       </c>
       <c r="I9" s="3">
+        <v>200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>200</v>
+      </c>
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>800</v>
       </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
       <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
         <v>900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,29 +861,35 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
         <v>1100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,37 +1002,43 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1123,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
       <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1139,29 +1198,35 @@
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1201,29 +1268,35 @@
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L20" s="3">
         <v>-1400</v>
       </c>
       <c r="M20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1254,20 +1327,26 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,13 +1389,19 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-500</v>
@@ -1325,37 +1410,43 @@
         <v>-500</v>
       </c>
       <c r="G23" s="3">
-        <v>-1000</v>
+        <v>-500</v>
       </c>
       <c r="H23" s="3">
         <v>-500</v>
       </c>
       <c r="I23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-500</v>
       </c>
       <c r="N23" s="3">
         <v>-400</v>
       </c>
       <c r="O23" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="P23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,13 +1539,19 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E26" s="3">
         <v>-500</v>
@@ -1457,42 +1560,48 @@
         <v>-500</v>
       </c>
       <c r="G26" s="3">
-        <v>-1000</v>
+        <v>-500</v>
       </c>
       <c r="H26" s="3">
         <v>-500</v>
       </c>
       <c r="I26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-500</v>
       </c>
       <c r="N26" s="3">
         <v>-400</v>
       </c>
       <c r="O26" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="P26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
         <v>-500</v>
@@ -1501,37 +1610,43 @@
         <v>-500</v>
       </c>
       <c r="G27" s="3">
-        <v>-1000</v>
+        <v>-500</v>
       </c>
       <c r="H27" s="3">
         <v>-500</v>
       </c>
       <c r="I27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-500</v>
       </c>
       <c r="N27" s="3">
         <v>-400</v>
       </c>
       <c r="O27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="P27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,13 +1689,19 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1592,34 +1713,40 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>1000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-100</v>
-      </c>
-      <c r="J29" s="3">
-        <v>200</v>
-      </c>
-      <c r="K29" s="3">
-        <v>100</v>
       </c>
       <c r="L29" s="3">
         <v>200</v>
       </c>
       <c r="M29" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1729,34 +1868,40 @@
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>100</v>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L32" s="3">
         <v>1400</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
-        <v>100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
         <v>-500</v>
@@ -1765,37 +1910,43 @@
         <v>-500</v>
       </c>
       <c r="G33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-400</v>
       </c>
       <c r="P33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,13 +1989,19 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
         <v>-500</v>
@@ -1853,86 +2010,98 @@
         <v>-500</v>
       </c>
       <c r="G35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-400</v>
       </c>
       <c r="P35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,81 +2138,89 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>6200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>9800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>6100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>7000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>5800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>5000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>8000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>3000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,7 +2249,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -2079,10 +2264,10 @@
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
@@ -2097,10 +2282,16 @@
         <v>300</v>
       </c>
       <c r="P43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,19 +2334,25 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2164,75 +2361,87 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>6000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F46" s="3">
         <v>7900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>8400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>9300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>10100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>10500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>11900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>7000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2245,14 +2454,14 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>400</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>400</v>
@@ -2275,34 +2484,40 @@
       <c r="P47" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>400</v>
+      </c>
+      <c r="R47" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
-        <v>100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>100</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>100</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="3">
-        <v>100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>100</v>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>100</v>
@@ -2319,52 +2534,64 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3">
         <v>4900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,13 +2684,19 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -2478,14 +2717,14 @@
         <v>100</v>
       </c>
       <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
-        <v>100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>100</v>
-      </c>
       <c r="N52" s="3">
         <v>100</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F54" s="3">
         <v>8000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>10900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>11800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>12500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>13300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>13700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,31 +2889,31 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>700</v>
       </c>
       <c r="N57" s="3">
         <v>700</v>
@@ -2661,10 +2922,16 @@
         <v>700</v>
       </c>
       <c r="P57" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>700</v>
+      </c>
+      <c r="R57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,52 +2974,64 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="3">
-        <v>100</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>1100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1500</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N59" s="3">
         <v>200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>300</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
       </c>
       <c r="P59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2763,40 +3042,46 @@
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
+        <v>300</v>
+      </c>
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
+        <v>200</v>
+      </c>
+      <c r="K60" s="3">
         <v>1200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,37 +3124,43 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
         <v>400</v>
-      </c>
-      <c r="K62" s="3">
-        <v>500</v>
-      </c>
-      <c r="L62" s="3">
-        <v>500</v>
       </c>
       <c r="M62" s="3">
         <v>500</v>
@@ -2878,13 +3169,19 @@
         <v>500</v>
       </c>
       <c r="O62" s="3">
+        <v>500</v>
+      </c>
+      <c r="P62" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,8 +3324,14 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3027,40 +3342,46 @@
         <v>200</v>
       </c>
       <c r="F66" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
       </c>
       <c r="H66" s="3">
+        <v>300</v>
+      </c>
+      <c r="I66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
+        <v>200</v>
+      </c>
+      <c r="K66" s="3">
         <v>1200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1400</v>
       </c>
       <c r="M66" s="3">
         <v>1400</v>
       </c>
       <c r="N66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-24700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-24300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-23800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-23300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-22300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-22800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-22000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-21400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-21200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-21000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-20500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-20100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F76" s="3">
         <v>7900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>8300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>9300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>10300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>9700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>11000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>11300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>12100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,62 +3894,74 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
         <v>-500</v>
@@ -3581,37 +3970,43 @@
         <v>-500</v>
       </c>
       <c r="G81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-400</v>
       </c>
       <c r="P81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,34 +4023,36 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -3667,13 +4064,19 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,13 +4319,19 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
         <v>-500</v>
@@ -3907,37 +4340,43 @@
         <v>-400</v>
       </c>
       <c r="G89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,37 +4393,39 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3996,10 +4437,16 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,34 +4539,40 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>3000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-5000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-3000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4128,10 +4587,16 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-5400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>5500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>WISH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,8 +771,8 @@
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>1400</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>1400</v>
@@ -777,19 +781,22 @@
         <v>1400</v>
       </c>
       <c r="O8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="P8" s="3">
         <v>1300</v>
       </c>
       <c r="Q8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="R8" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,13 +807,13 @@
         <v>100</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>200</v>
@@ -815,17 +822,17 @@
         <v>200</v>
       </c>
       <c r="K9" s="3">
+        <v>200</v>
+      </c>
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>800</v>
       </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
@@ -833,13 +840,16 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,29 +877,32 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>1100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>1200</v>
       </c>
       <c r="P10" s="3">
         <v>1200</v>
       </c>
       <c r="Q10" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="R10" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,19 +1025,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1028,20 +1048,20 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>500</v>
       </c>
       <c r="G17" s="3">
         <v>500</v>
       </c>
       <c r="H17" s="3">
+        <v>500</v>
+      </c>
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1204,29 +1234,32 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1274,29 +1308,32 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1300</v>
       </c>
       <c r="P20" s="3">
         <v>-1300</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1333,20 +1370,23 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
       </c>
       <c r="R21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,7 +1447,7 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-500</v>
@@ -1416,28 +1459,28 @@
         <v>-500</v>
       </c>
       <c r="I23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-400</v>
       </c>
       <c r="Q23" s="3">
         <v>-400</v>
@@ -1445,13 +1488,16 @@
       <c r="R23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,7 +1606,7 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-500</v>
@@ -1566,28 +1618,28 @@
         <v>-500</v>
       </c>
       <c r="I26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-400</v>
       </c>
       <c r="Q26" s="3">
         <v>-400</v>
@@ -1595,8 +1647,11 @@
       <c r="R26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1604,7 +1659,7 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
         <v>-500</v>
@@ -1616,28 +1671,28 @@
         <v>-500</v>
       </c>
       <c r="I27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-400</v>
       </c>
       <c r="Q27" s="3">
         <v>-400</v>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,16 +1753,19 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1719,34 +1780,37 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>1000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>200</v>
       </c>
-      <c r="M29" s="3">
-        <v>100</v>
-      </c>
       <c r="N29" s="3">
+        <v>100</v>
+      </c>
+      <c r="O29" s="3">
         <v>200</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>4</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1874,29 +1944,32 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>1400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1300</v>
       </c>
       <c r="P32" s="3">
         <v>1300</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,7 +1977,7 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
         <v>-500</v>
@@ -1916,28 +1989,28 @@
         <v>-500</v>
       </c>
       <c r="I33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-400</v>
       </c>
       <c r="Q33" s="3">
         <v>-400</v>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,7 +2083,7 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
         <v>-500</v>
@@ -2016,28 +2095,28 @@
         <v>-500</v>
       </c>
       <c r="I35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-400</v>
       </c>
       <c r="Q35" s="3">
         <v>-400</v>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,90 +2226,94 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E41" s="3">
         <v>7100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6800</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>7000</v>
       </c>
       <c r="R41" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="D42" s="3">
+        <v>300</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>5800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>8000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3000</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2249,10 +2342,10 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2270,7 +2363,7 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
@@ -2288,10 +2381,13 @@
         <v>300</v>
       </c>
       <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2352,10 +2451,10 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2367,81 +2466,87 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>6000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E46" s="3">
         <v>7200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2460,11 +2565,11 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>400</v>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2504,14 +2612,14 @@
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>100</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -2519,8 +2627,8 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>100</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2566,32 +2677,35 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3">
         <v>4900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2699,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -2723,11 +2843,11 @@
         <v>100</v>
       </c>
       <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
-        <v>100</v>
-      </c>
       <c r="O52" s="3">
         <v>100</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E54" s="3">
         <v>7200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2889,16 +3020,16 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -2907,16 +3038,16 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>700</v>
       </c>
       <c r="O57" s="3">
         <v>700</v>
@@ -2928,33 +3059,36 @@
         <v>700</v>
       </c>
       <c r="R57" s="3">
+        <v>700</v>
+      </c>
+      <c r="S57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2994,44 +3131,47 @@
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
-        <v>100</v>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
       </c>
       <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3039,49 +3179,52 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
-        <v>100</v>
-      </c>
       <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
       </c>
       <c r="K60" s="3">
+        <v>200</v>
+      </c>
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>900</v>
       </c>
       <c r="O60" s="3">
         <v>900</v>
       </c>
       <c r="P60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Q60" s="3">
         <v>1000</v>
       </c>
       <c r="R60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3156,14 +3302,14 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3">
         <v>400</v>
-      </c>
-      <c r="M62" s="3">
-        <v>500</v>
       </c>
       <c r="N62" s="3">
         <v>500</v>
@@ -3175,13 +3321,16 @@
         <v>500</v>
       </c>
       <c r="Q62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R62" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3339,31 +3497,31 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
+        <v>100</v>
+      </c>
+      <c r="F66" s="3">
         <v>200</v>
       </c>
-      <c r="F66" s="3">
-        <v>100</v>
-      </c>
       <c r="G66" s="3">
+        <v>100</v>
+      </c>
+      <c r="H66" s="3">
         <v>200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
       </c>
       <c r="K66" s="3">
+        <v>200</v>
+      </c>
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1400</v>
       </c>
       <c r="N66" s="3">
         <v>1400</v>
@@ -3372,16 +3530,19 @@
         <v>1400</v>
       </c>
       <c r="P66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-25600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-25300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-23300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-22000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-21200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-21000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-20100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E76" s="3">
         <v>7100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,7 +4159,7 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
         <v>-500</v>
@@ -3976,28 +4171,28 @@
         <v>-500</v>
       </c>
       <c r="I81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-400</v>
       </c>
       <c r="Q81" s="3">
         <v>-400</v>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4051,11 +4250,11 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -4070,13 +4269,16 @@
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4421,14 +4642,14 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4443,10 +4664,13 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,37 +4772,40 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>5800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>3000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4593,10 +4823,13 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
   <si>
     <t>WISH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,115 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>794000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>606000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>701000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>440000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>576000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>455000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>420000</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
@@ -774,105 +781,117 @@
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1400</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>1400</v>
       </c>
       <c r="P8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R8" s="3">
         <v>1300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>100</v>
+        <v>342000</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>241000</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>208000</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>156000</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>188000</v>
       </c>
       <c r="I9" s="3">
-        <v>200</v>
+        <v>109000</v>
       </c>
       <c r="J9" s="3">
-        <v>200</v>
+        <v>74000</v>
       </c>
       <c r="K9" s="3">
         <v>200</v>
       </c>
       <c r="L9" s="3">
+        <v>200</v>
+      </c>
+      <c r="M9" s="3">
+        <v>200</v>
+      </c>
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>800</v>
-      </c>
-      <c r="O9" s="3">
-        <v>100</v>
-      </c>
-      <c r="P9" s="3">
-        <v>100</v>
       </c>
       <c r="Q9" s="3">
         <v>100</v>
       </c>
       <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
         <v>900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>452000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>365000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>493000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>284000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>388000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>346000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>346000</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -880,29 +899,35 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>1100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,31 +947,33 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F12" s="3">
+        <v>23000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>19000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>17000</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,46 +1061,52 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1081,8 +1120,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,66 +1203,74 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
-      </c>
-      <c r="F17" s="3">
+        <v>1305000</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>696000</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="L17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
-        <v>500</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="N17" s="3">
+        <v>700</v>
+      </c>
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>600</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>500</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
       </c>
       <c r="R17" s="3">
+        <v>500</v>
+      </c>
+      <c r="S17" s="3">
+        <v>400</v>
+      </c>
+      <c r="T17" s="3">
         <v>1700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-511000</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>4</v>
@@ -1222,8 +1281,8 @@
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
+      <c r="H18" s="3">
+        <v>-120000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
@@ -1237,29 +1296,35 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,13 +1344,15 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-57000</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>4</v>
@@ -1296,8 +1363,8 @@
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+      <c r="H20" s="3">
+        <v>-3000</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
@@ -1311,34 +1378,40 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-100</v>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O20" s="3">
         <v>-1400</v>
       </c>
       <c r="P20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-565000</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>4</v>
@@ -1349,8 +1422,8 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>-113000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1373,20 +1446,26 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,69 +1517,81 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-568000</v>
       </c>
       <c r="E23" s="3">
-        <v>-300</v>
+        <v>-98000</v>
       </c>
       <c r="F23" s="3">
-        <v>-500</v>
+        <v>-11000</v>
       </c>
       <c r="G23" s="3">
-        <v>-500</v>
+        <v>-66000</v>
       </c>
       <c r="H23" s="3">
-        <v>-500</v>
+        <v>-123000</v>
       </c>
       <c r="I23" s="3">
-        <v>-500</v>
+        <v>87000</v>
       </c>
       <c r="J23" s="3">
-        <v>-1000</v>
+        <v>42000</v>
       </c>
       <c r="K23" s="3">
         <v>-500</v>
       </c>
       <c r="L23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-500</v>
       </c>
       <c r="Q23" s="3">
         <v>-400</v>
       </c>
       <c r="R23" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="S23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>1000</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1509,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-500</v>
+        <v>-569000</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1000</v>
+        <v>-124000</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K26" s="3">
         <v>-500</v>
       </c>
       <c r="L26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-500</v>
       </c>
       <c r="Q26" s="3">
         <v>-400</v>
       </c>
       <c r="R26" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="S26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-500</v>
+        <v>-569000</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1000</v>
+        <v>-124000</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K27" s="3">
         <v>-500</v>
       </c>
       <c r="L27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-500</v>
       </c>
       <c r="Q27" s="3">
         <v>-400</v>
       </c>
       <c r="R27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="S27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,16 +1871,22 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1783,34 +1904,40 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>1000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-100</v>
-      </c>
-      <c r="M29" s="3">
-        <v>200</v>
-      </c>
-      <c r="N29" s="3">
-        <v>100</v>
       </c>
       <c r="O29" s="3">
         <v>200</v>
       </c>
       <c r="P29" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,13 +2048,19 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>57000</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>4</v>
@@ -1932,8 +2071,8 @@
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
+      <c r="H32" s="3">
+        <v>3000</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
@@ -1947,82 +2086,94 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N32" s="3">
-        <v>100</v>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O32" s="3">
         <v>1400</v>
       </c>
       <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R32" s="3">
         <v>1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F33" s="3">
+        <v>-569000</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="L33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M33" s="3">
+        <v>500</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-400</v>
       </c>
       <c r="S33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F35" s="3">
+        <v>-569000</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="L35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M35" s="3">
+        <v>500</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-400</v>
       </c>
       <c r="S35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,99 +2398,107 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1965000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>844000</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
+        <v>700</v>
+      </c>
+      <c r="L41" s="3">
+        <v>6200</v>
+      </c>
+      <c r="M41" s="3">
+        <v>9800</v>
+      </c>
+      <c r="N41" s="3">
+        <v>4300</v>
+      </c>
+      <c r="O41" s="3">
+        <v>5700</v>
+      </c>
+      <c r="P41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="R41" s="3">
         <v>6500</v>
       </c>
-      <c r="E41" s="3">
-        <v>7100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>7300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H41" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>700</v>
-      </c>
-      <c r="J41" s="3">
-        <v>6200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>9800</v>
-      </c>
-      <c r="L41" s="3">
-        <v>4300</v>
-      </c>
-      <c r="M41" s="3">
-        <v>5700</v>
-      </c>
-      <c r="N41" s="3">
-        <v>5600</v>
-      </c>
-      <c r="O41" s="3">
-        <v>6100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>6500</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>6800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>7000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>300</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>5800</v>
-      </c>
-      <c r="H42" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I42" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>250000</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="3">
         <v>8000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2333,31 +2512,37 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>83000</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
+        <v>67000</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
@@ -2366,10 +2551,10 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
@@ -2384,10 +2569,16 @@
         <v>300</v>
       </c>
       <c r="S43" s="3">
+        <v>300</v>
+      </c>
+      <c r="T43" s="3">
+        <v>300</v>
+      </c>
+      <c r="U43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,122 +2630,140 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>102000</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
+        <v>85000</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>6000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>6300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2314000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1246000</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="3">
+        <v>9000</v>
+      </c>
+      <c r="L46" s="3">
+        <v>9300</v>
+      </c>
+      <c r="M46" s="3">
+        <v>10100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>10500</v>
+      </c>
+      <c r="O46" s="3">
+        <v>6400</v>
+      </c>
+      <c r="P46" s="3">
+        <v>11900</v>
+      </c>
+      <c r="Q46" s="3">
         <v>6900</v>
       </c>
-      <c r="E46" s="3">
-        <v>7200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>7500</v>
-      </c>
-      <c r="G46" s="3">
-        <v>7900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>8400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>9300</v>
-      </c>
-      <c r="K46" s="3">
-        <v>10100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>10500</v>
-      </c>
-      <c r="M46" s="3">
-        <v>6400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>11900</v>
-      </c>
-      <c r="O46" s="3">
-        <v>6900</v>
-      </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>7400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>7700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>7000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
@@ -2568,14 +2777,14 @@
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3">
-        <v>400</v>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>400</v>
@@ -2598,16 +2807,22 @@
       <c r="S47" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>400</v>
+      </c>
+      <c r="U47" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>67000</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
@@ -2615,26 +2830,26 @@
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3">
-        <v>100</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>100</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -2651,8 +2866,14 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2680,32 +2901,38 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" s="3">
         <v>4900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>5300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>5400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,31 +3043,37 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>100</v>
+        <v>22000</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -2846,13 +3085,13 @@
         <v>100</v>
       </c>
       <c r="N52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O52" s="3">
         <v>100</v>
       </c>
       <c r="P52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
@@ -2863,8 +3102,14 @@
       <c r="S52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6900</v>
+        <v>2397000</v>
       </c>
       <c r="E54" s="3">
-        <v>7200</v>
-      </c>
-      <c r="F54" s="3">
-        <v>7500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>8000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>8500</v>
-      </c>
-      <c r="I54" s="3">
+        <v>1342000</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="3">
         <v>9100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>9500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>11800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>12500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>12600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>12800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>13300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>13700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,49 +3270,51 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>888000</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
-      </c>
-      <c r="F57" s="3">
-        <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
+        <v>785000</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>700</v>
-      </c>
-      <c r="P57" s="3">
-        <v>700</v>
       </c>
       <c r="Q57" s="3">
         <v>700</v>
@@ -3062,39 +3323,45 @@
         <v>700</v>
       </c>
       <c r="S57" s="3">
+        <v>700</v>
+      </c>
+      <c r="T57" s="3">
+        <v>700</v>
+      </c>
+      <c r="U57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3117,16 +3384,22 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>444000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>406000</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
@@ -3134,97 +3407,109 @@
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
         <v>1100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1500</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
       </c>
       <c r="P59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
       </c>
       <c r="S59" s="3">
+        <v>300</v>
+      </c>
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>1332000</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
-      </c>
-      <c r="F60" s="3">
+        <v>1191000</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3">
+        <v>300</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
-        <v>100</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
-        <v>300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,46 +3561,52 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>38000</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>220000</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
         <v>400</v>
-      </c>
-      <c r="N62" s="3">
-        <v>500</v>
-      </c>
-      <c r="O62" s="3">
-        <v>500</v>
       </c>
       <c r="P62" s="3">
         <v>500</v>
@@ -3324,13 +3615,19 @@
         <v>500</v>
       </c>
       <c r="R62" s="3">
+        <v>500</v>
+      </c>
+      <c r="S62" s="3">
+        <v>500</v>
+      </c>
+      <c r="T62" s="3">
         <v>600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>1370000</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
-      </c>
-      <c r="F66" s="3">
+        <v>1411000</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="3">
+        <v>300</v>
+      </c>
+      <c r="L66" s="3">
         <v>200</v>
       </c>
-      <c r="G66" s="3">
-        <v>100</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
-      <c r="I66" s="3">
-        <v>300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>200</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1400</v>
       </c>
       <c r="P66" s="3">
         <v>1400</v>
       </c>
       <c r="Q66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3677,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>1536000</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-26000</v>
+        <v>-2184000</v>
       </c>
       <c r="E72" s="3">
-        <v>-25600</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-25300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-24700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-24300</v>
-      </c>
-      <c r="I72" s="3">
+        <v>-1615000</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3">
         <v>-23800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-23300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-22300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-22800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-22000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-21400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-21200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-20500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-20100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6700</v>
+        <v>1027000</v>
       </c>
       <c r="E76" s="3">
-        <v>7100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>7400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>7900</v>
-      </c>
-      <c r="H76" s="3">
-        <v>8300</v>
-      </c>
-      <c r="I76" s="3">
+        <v>-1605000</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="3">
         <v>8800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>9300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>10300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>9700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>10500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>11000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>11200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>11300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>11700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>12100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F81" s="3">
+        <v>-569000</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="L81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M81" s="3">
+        <v>500</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-400</v>
       </c>
       <c r="S81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,43 +4619,45 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -4272,13 +4669,19 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="L89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="P89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="R89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,46 +5055,48 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4667,10 +5108,16 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,43 +5228,49 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>5800</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H94" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I94" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4826,10 +5285,16 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,31 +5546,37 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>1047000</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5114,8 +5605,14 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5664,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-600</v>
-      </c>
-      <c r="E102" s="3">
+        <v>1111000</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="M102" s="3">
+        <v>5500</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
-        <v>5300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-5400</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="K102" s="3">
-        <v>5500</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-900</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
   <si>
     <t>WISH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>772000</v>
+      </c>
+      <c r="E8" s="3">
         <v>794000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>606000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>701000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>440000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>576000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>455000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>420000</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
@@ -787,8 +791,8 @@
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>1400</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>1400</v>
@@ -797,45 +801,48 @@
         <v>1400</v>
       </c>
       <c r="R8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="S8" s="3">
         <v>1300</v>
       </c>
       <c r="T8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="U8" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>335000</v>
+      </c>
+      <c r="E9" s="3">
         <v>342000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>241000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>208000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>156000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>188000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>109000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>74000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>200</v>
       </c>
       <c r="L9" s="3">
         <v>200</v>
@@ -844,16 +851,16 @@
         <v>200</v>
       </c>
       <c r="N9" s="3">
+        <v>200</v>
+      </c>
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>800</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>100</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -862,39 +869,42 @@
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>437000</v>
+      </c>
+      <c r="E10" s="3">
         <v>452000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>365000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>493000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>284000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>388000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>346000</v>
       </c>
       <c r="J10" s="3">
         <v>346000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>346000</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -905,29 +915,32 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>1100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1200</v>
       </c>
       <c r="S10" s="3">
         <v>1200</v>
       </c>
       <c r="T10" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="U10" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,35 +962,36 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E12" s="3">
         <v>150000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>22000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>17000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1093,23 +1113,23 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,88 +1231,92 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>898000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1305000</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="3">
         <v>696000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-126000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-511000</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
         <v>-120000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1302,29 +1332,32 @@
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,29 +1379,30 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-57000</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1384,50 +1418,53 @@
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1300</v>
       </c>
       <c r="S20" s="3">
         <v>-1300</v>
       </c>
       <c r="T20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-565000</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-113000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1452,20 +1489,23 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-200</v>
       </c>
       <c r="U21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,58 +1563,61 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-126000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-568000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-98000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-11000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-66000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-123000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>87000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>42000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-400</v>
       </c>
       <c r="T23" s="3">
         <v>-400</v>
@@ -1582,29 +1625,32 @@
       <c r="U23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E24" s="3">
         <v>1000</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,58 +1749,61 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-569000</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="3">
         <v>-124000</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-400</v>
       </c>
       <c r="T26" s="3">
         <v>-400</v>
@@ -1759,58 +1811,61 @@
       <c r="U26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-569000</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="3">
         <v>-124000</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-400</v>
       </c>
       <c r="T27" s="3">
         <v>-400</v>
@@ -1818,8 +1873,11 @@
       <c r="U27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1910,34 +1971,37 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>1000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>200</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>4</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,29 +2121,32 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>57000</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2092,79 +2162,82 @@
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1400</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1300</v>
       </c>
       <c r="S32" s="3">
         <v>1300</v>
       </c>
       <c r="T32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-569000</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="3">
         <v>-124000</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
       </c>
       <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-500</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-400</v>
       </c>
       <c r="T33" s="3">
         <v>-400</v>
@@ -2172,8 +2245,11 @@
       <c r="U33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,58 +2307,61 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-569000</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="3">
         <v>-124000</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
       </c>
       <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-500</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-400</v>
       </c>
       <c r="T35" s="3">
         <v>-400</v>
@@ -2290,72 +2369,78 @@
       <c r="U35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,20 +2486,21 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1620000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1965000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>844000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2426,53 +2513,56 @@
       <c r="J41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6800</v>
-      </c>
-      <c r="T41" s="3">
-        <v>7000</v>
       </c>
       <c r="U41" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E42" s="3">
         <v>164000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>250000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2485,23 +2575,23 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L42" s="3">
         <v>8000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3000</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2518,20 +2608,23 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E43" s="3">
         <v>83000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>67000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2544,8 +2637,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2557,7 +2650,7 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
@@ -2575,10 +2668,13 @@
         <v>300</v>
       </c>
       <c r="U43" s="3">
+        <v>300</v>
+      </c>
+      <c r="V43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,20 +2732,23 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E45" s="3">
         <v>102000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>85000</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2662,8 +2761,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2672,43 +2771,46 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>6000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1927000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2314000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1246000</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2721,53 +2823,56 @@
       <c r="J46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3">
         <v>9000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>4000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>7000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2783,11 +2888,11 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>400</v>
@@ -2813,20 +2918,23 @@
       <c r="U47" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E48" s="3">
         <v>68000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>67000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2839,20 +2947,20 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>100</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2907,32 +3018,35 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P49" s="3">
         <v>4900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,20 +3166,23 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E52" s="3">
         <v>11000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>22000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3075,8 +3195,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>100</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -3091,10 +3211,10 @@
         <v>100</v>
       </c>
       <c r="P52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
         <v>200</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,20 +3290,23 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1999000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2397000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1342000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3193,41 +3319,44 @@
       <c r="J54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3">
         <v>9100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,20 +3402,21 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>672000</v>
+      </c>
+      <c r="E57" s="3">
         <v>888000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>785000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3298,8 +3429,8 @@
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
-        <v>200</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -3308,16 +3439,16 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>700</v>
       </c>
       <c r="R57" s="3">
         <v>700</v>
@@ -3329,10 +3460,13 @@
         <v>700</v>
       </c>
       <c r="U57" s="3">
+        <v>700</v>
+      </c>
+      <c r="V57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3357,14 +3491,14 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>0</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3390,20 +3524,23 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>363000</v>
+      </c>
+      <c r="E59" s="3">
         <v>444000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>406000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3416,53 +3553,56 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>200</v>
       </c>
       <c r="S59" s="3">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
-      </c>
-      <c r="T59" s="3">
-        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1035000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1332000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1191000</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3475,41 +3615,44 @@
       <c r="J60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
       <c r="N60" s="3">
+        <v>200</v>
+      </c>
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>900</v>
       </c>
       <c r="R60" s="3">
         <v>900</v>
       </c>
       <c r="S60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="T60" s="3">
         <v>1000</v>
       </c>
       <c r="U60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,20 +3710,23 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E62" s="3">
         <v>38000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>220000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3593,8 +3739,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3602,14 +3748,14 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
         <v>400</v>
-      </c>
-      <c r="P62" s="3">
-        <v>500</v>
       </c>
       <c r="Q62" s="3">
         <v>500</v>
@@ -3621,13 +3767,16 @@
         <v>500</v>
       </c>
       <c r="T62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U62" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,20 +3958,23 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1069000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1370000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1411000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3829,23 +3987,23 @@
       <c r="J66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="3">
         <v>300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>200</v>
       </c>
       <c r="N66" s="3">
+        <v>200</v>
+      </c>
+      <c r="O66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1400</v>
       </c>
       <c r="Q66" s="3">
         <v>1400</v>
@@ -3854,16 +4012,19 @@
         <v>1400</v>
       </c>
       <c r="S66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4012,11 +4180,11 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>1536000</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,20 +4292,23 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2312000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2184000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1615000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4147,41 +4321,44 @@
       <c r="J72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
         <v>-23800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-22300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-22800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-22000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-21400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-21200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-21000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-20500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-20100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,20 +4540,23 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>930000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1027000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1605000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4383,41 +4569,44 @@
       <c r="J76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3">
         <v>8800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,122 +4664,128 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-569000</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="3">
         <v>-124000</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
       </c>
       <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-500</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-400</v>
       </c>
       <c r="T81" s="3">
         <v>-400</v>
@@ -4598,8 +4793,11 @@
       <c r="U81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,17 +4819,18 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3000</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
@@ -4647,8 +4846,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4656,11 +4855,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O83" s="3">
-        <v>100</v>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -4675,13 +4874,16 @@
         <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,17 +5189,20 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-354000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-24000</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F89" s="3" t="s">
         <v>4</v>
       </c>
@@ -5001,41 +5218,44 @@
       <c r="J89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,17 +5277,18 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5083,8 +5304,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -5092,14 +5313,14 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5114,10 +5335,13 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,17 +5461,20 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E94" s="3">
         <v>88000</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5260,20 +5490,20 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3">
         <v>-5000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5291,10 +5521,13 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,17 +5795,20 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1047000</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
@@ -5578,8 +5824,8 @@
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,17 +5919,20 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-345000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1111000</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F102" s="3" t="s">
         <v>4</v>
       </c>
@@ -5696,37 +5948,40 @@
       <c r="J102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
         <v>-5400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
   <si>
     <t>WISH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>656000</v>
+      </c>
+      <c r="E8" s="3">
         <v>772000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>794000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>606000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>701000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>440000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>576000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>455000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>420000</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
@@ -794,8 +798,8 @@
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
-        <v>1400</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>1400</v>
@@ -804,48 +808,51 @@
         <v>1400</v>
       </c>
       <c r="S8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="T8" s="3">
         <v>1300</v>
       </c>
       <c r="U8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="V8" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E9" s="3">
         <v>335000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>342000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>241000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>208000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>156000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>188000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>109000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>74000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>200</v>
       </c>
       <c r="M9" s="3">
         <v>200</v>
@@ -854,16 +861,16 @@
         <v>200</v>
       </c>
       <c r="O9" s="3">
+        <v>200</v>
+      </c>
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>800</v>
-      </c>
-      <c r="R9" s="3">
-        <v>100</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
@@ -872,42 +879,45 @@
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>384000</v>
+      </c>
+      <c r="E10" s="3">
         <v>437000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>452000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>365000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>493000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>284000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>388000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>346000</v>
       </c>
       <c r="K10" s="3">
         <v>346000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="L10" s="3">
+        <v>346000</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -918,29 +928,32 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3">
         <v>1100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1300</v>
-      </c>
-      <c r="S10" s="3">
-        <v>1200</v>
       </c>
       <c r="T10" s="3">
         <v>1200</v>
       </c>
       <c r="U10" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="V10" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,38 +976,39 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E12" s="3">
         <v>51000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>150000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>22000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,52 +1104,55 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>6000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,94 +1258,98 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>770000</v>
+      </c>
+      <c r="E17" s="3">
         <v>898000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1305000</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="3">
         <v>696000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-114000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-126000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-511000</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>-120000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1335,29 +1365,32 @@
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,32 +1413,33 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-57000</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1421,53 +1455,56 @@
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1300</v>
       </c>
       <c r="T20" s="3">
         <v>-1300</v>
       </c>
       <c r="U20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-124000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-565000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
         <v>-113000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1492,20 +1529,23 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-200</v>
       </c>
       <c r="V21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,61 +1606,64 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-106000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-126000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-568000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-98000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-66000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-123000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>87000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>42000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-400</v>
       </c>
       <c r="U23" s="3">
         <v>-400</v>
@@ -1628,32 +1671,35 @@
       <c r="V23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1000</v>
       </c>
       <c r="F24" s="3">
         <v>1000</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,61 +1801,64 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-128000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-569000</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="3">
         <v>-124000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-400</v>
       </c>
       <c r="U26" s="3">
         <v>-400</v>
@@ -1814,61 +1866,64 @@
       <c r="V26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-128000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-569000</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="3">
         <v>-124000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-400</v>
       </c>
       <c r="U27" s="3">
         <v>-400</v>
@@ -1876,8 +1931,11 @@
       <c r="V27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1974,34 +2035,37 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>1000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>200</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>4</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,32 +2191,35 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-8000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>57000</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2165,82 +2235,85 @@
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1300</v>
       </c>
       <c r="T32" s="3">
         <v>1300</v>
       </c>
       <c r="U32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-128000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-569000</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="3">
         <v>-124000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-500</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-400</v>
       </c>
       <c r="U33" s="3">
         <v>-400</v>
@@ -2248,8 +2321,11 @@
       <c r="V33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,61 +2386,64 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-128000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-569000</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="3">
         <v>-124000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-500</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-400</v>
       </c>
       <c r="U35" s="3">
         <v>-400</v>
@@ -2372,75 +2451,81 @@
       <c r="V35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,23 +2573,24 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1405000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1620000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1965000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>844000</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2516,56 +2603,59 @@
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6800</v>
-      </c>
-      <c r="U41" s="3">
-        <v>7000</v>
       </c>
       <c r="V41" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E42" s="3">
         <v>154000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>164000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>250000</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2578,23 +2668,23 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="3">
         <v>8000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2611,23 +2701,26 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E43" s="3">
         <v>65000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>83000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>67000</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2640,8 +2733,8 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2653,7 +2746,7 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
@@ -2671,10 +2764,13 @@
         <v>300</v>
       </c>
       <c r="V43" s="3">
+        <v>300</v>
+      </c>
+      <c r="W43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,23 +2831,26 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E45" s="3">
         <v>88000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>102000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>85000</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2764,8 +2863,8 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>100</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2774,46 +2873,49 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>6000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>6300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1690000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1927000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2314000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1246000</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2826,41 +2928,44 @@
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" s="3">
         <v>9000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2868,14 +2973,14 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>4000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7000</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2891,11 +2996,11 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>400</v>
@@ -2921,23 +3026,26 @@
       <c r="V47" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E48" s="3">
         <v>62000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>68000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>67000</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2950,20 +3058,20 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>100</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3021,32 +3132,35 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3">
         <v>4900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3178,14 +3298,14 @@
         <v>10000</v>
       </c>
       <c r="E52" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F52" s="3">
         <v>11000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3198,8 +3318,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>100</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>100</v>
@@ -3214,10 +3334,10 @@
         <v>100</v>
       </c>
       <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+      <c r="R52" s="3">
         <v>200</v>
-      </c>
-      <c r="R52" s="3">
-        <v>100</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,23 +3416,26 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1751000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1999000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2397000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1342000</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3322,41 +3448,44 @@
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="3">
         <v>9100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,23 +3533,24 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>568000</v>
+      </c>
+      <c r="E57" s="3">
         <v>672000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>888000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>785000</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3432,8 +3563,8 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3">
-        <v>200</v>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -3442,16 +3573,16 @@
         <v>200</v>
       </c>
       <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>700</v>
       </c>
       <c r="S57" s="3">
         <v>700</v>
@@ -3463,10 +3594,13 @@
         <v>700</v>
       </c>
       <c r="V57" s="3">
+        <v>700</v>
+      </c>
+      <c r="W57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3494,14 +3628,14 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>0</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3527,23 +3661,26 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E59" s="3">
         <v>363000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>444000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>406000</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3556,56 +3693,59 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
       <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
       </c>
       <c r="T59" s="3">
+        <v>200</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
-      </c>
-      <c r="U59" s="3">
-        <v>200</v>
       </c>
       <c r="V59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>858000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1035000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1332000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1191000</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3618,41 +3758,44 @@
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3">
         <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
-      </c>
-      <c r="R60" s="3">
-        <v>900</v>
       </c>
       <c r="S60" s="3">
         <v>900</v>
       </c>
       <c r="T60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="U60" s="3">
         <v>1000</v>
       </c>
       <c r="V60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,23 +3856,26 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E62" s="3">
         <v>34000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>38000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>220000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3742,8 +3888,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3751,14 +3897,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
         <v>400</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>500</v>
       </c>
       <c r="R62" s="3">
         <v>500</v>
@@ -3770,13 +3916,16 @@
         <v>500</v>
       </c>
       <c r="U62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V62" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,23 +4116,26 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>889000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1069000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1370000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1411000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3990,23 +4148,23 @@
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
         <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>200</v>
       </c>
       <c r="N66" s="3">
         <v>200</v>
       </c>
       <c r="O66" s="3">
+        <v>200</v>
+      </c>
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1400</v>
       </c>
       <c r="R66" s="3">
         <v>1400</v>
@@ -4015,16 +4173,19 @@
         <v>1400</v>
       </c>
       <c r="T66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4183,11 +4351,11 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>1536000</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,23 +4466,26 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2423000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2312000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2184000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1615000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4324,41 +4498,44 @@
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" s="3">
         <v>-23800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-22300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-22800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-21400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-21200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-21000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-20500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-20100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,23 +4726,26 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>862000</v>
+      </c>
+      <c r="E76" s="3">
         <v>930000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1027000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1605000</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4572,41 +4758,44 @@
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>8800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,128 +4856,134 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-128000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-569000</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J81" s="3">
         <v>-124000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-500</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-400</v>
       </c>
       <c r="U81" s="3">
         <v>-400</v>
@@ -4796,8 +4991,11 @@
       <c r="V81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,20 +5018,21 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3000</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
       </c>
@@ -4849,8 +5048,8 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4858,11 +5057,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
-        <v>100</v>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -4877,13 +5076,16 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,20 +5406,23 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-204000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-354000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-24000</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>4</v>
       </c>
@@ -5221,41 +5438,44 @@
       <c r="K89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,20 +5498,21 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5307,8 +5528,8 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5316,14 +5537,14 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5338,10 +5559,13 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,20 +5691,23 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E94" s="3">
         <v>14000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>88000</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5493,20 +5723,20 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-5000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5524,10 +5754,13 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,20 +6041,23 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1047000</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
@@ -5827,8 +6073,8 @@
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,20 +6171,23 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-215000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-345000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1111000</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>4</v>
       </c>
@@ -5951,37 +6203,40 @@
       <c r="K102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>-5400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
   <si>
     <t>WISH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,137 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E8" s="3">
         <v>656000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>772000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>794000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>606000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>701000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>440000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>576000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>455000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>420000</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
@@ -801,8 +805,8 @@
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>1400</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>1400</v>
@@ -811,51 +815,54 @@
         <v>1400</v>
       </c>
       <c r="T8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="U8" s="3">
         <v>1300</v>
       </c>
       <c r="V8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="W8" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>201000</v>
+      </c>
+      <c r="E9" s="3">
         <v>272000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>335000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>342000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>241000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>208000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>156000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>188000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>109000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>74000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>200</v>
       </c>
       <c r="N9" s="3">
         <v>200</v>
@@ -864,16 +871,16 @@
         <v>200</v>
       </c>
       <c r="P9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>800</v>
-      </c>
-      <c r="S9" s="3">
-        <v>100</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
@@ -882,45 +889,48 @@
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E10" s="3">
         <v>384000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>437000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>452000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>365000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>493000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>284000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>388000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>346000</v>
       </c>
       <c r="L10" s="3">
         <v>346000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>346000</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -931,29 +941,32 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>1100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1300</v>
-      </c>
-      <c r="T10" s="3">
-        <v>1200</v>
       </c>
       <c r="U10" s="3">
         <v>1200</v>
       </c>
       <c r="V10" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="W10" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,41 +990,42 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E12" s="3">
         <v>52000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>51000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>150000</v>
       </c>
-      <c r="G12" s="3">
-        <v>25000</v>
-      </c>
       <c r="H12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I12" s="3">
         <v>23000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>22000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>17000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,17 +1124,20 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>6000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1133,29 +1153,29 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>400</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,100 +1285,104 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>431000</v>
+      </c>
+      <c r="E17" s="3">
         <v>770000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>898000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1305000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>4</v>
+      <c r="H17" s="3">
+        <v>684000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="3">
         <v>696000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-114000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-126000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-511000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
+      <c r="H18" s="3">
+        <v>-78000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-120000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1368,29 +1398,32 @@
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,35 +1447,36 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>8000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-57000</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+      <c r="H20" s="3">
+        <v>-20000</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1458,56 +1492,59 @@
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1300</v>
       </c>
       <c r="U20" s="3">
         <v>-1300</v>
       </c>
       <c r="V20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-103000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-124000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-565000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-113000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1532,20 +1569,23 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-200</v>
       </c>
       <c r="W21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,64 +1649,67 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-106000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-126000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-568000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-98000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-66000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-123000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>87000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>42000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-400</v>
       </c>
       <c r="V23" s="3">
         <v>-400</v>
@@ -1674,35 +1717,38 @@
       <c r="W23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>5000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1000</v>
       </c>
       <c r="G24" s="3">
         <v>1000</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,64 +1853,67 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-111000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-128000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-569000</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>4</v>
+      <c r="H26" s="3">
+        <v>-99000</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="3">
         <v>-124000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-400</v>
       </c>
       <c r="V26" s="3">
         <v>-400</v>
@@ -1869,64 +1921,67 @@
       <c r="W26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-111000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-128000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-569000</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>4</v>
+      <c r="H27" s="3">
+        <v>-99000</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="3">
         <v>-124000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-400</v>
       </c>
       <c r="V27" s="3">
         <v>-400</v>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2038,34 +2099,37 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>1000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>200</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>4</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,35 +2261,38 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>57000</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
+      <c r="H32" s="3">
+        <v>20000</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2238,85 +2308,88 @@
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1400</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1300</v>
       </c>
       <c r="U32" s="3">
         <v>1300</v>
       </c>
       <c r="V32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-111000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-128000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-569000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>4</v>
+      <c r="H33" s="3">
+        <v>-99000</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="3">
         <v>-124000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-200</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
       </c>
       <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-500</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-400</v>
       </c>
       <c r="V33" s="3">
         <v>-400</v>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,64 +2465,67 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-111000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-128000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-569000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>4</v>
+      <c r="H35" s="3">
+        <v>-99000</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="3">
         <v>-124000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-200</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
       </c>
       <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-500</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-400</v>
       </c>
       <c r="V35" s="3">
         <v>-400</v>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,26 +2660,27 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1072000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1405000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1620000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1965000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>844000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2606,59 +2693,62 @@
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6800</v>
-      </c>
-      <c r="V41" s="3">
-        <v>7000</v>
       </c>
       <c r="W41" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>143000</v>
+      </c>
+      <c r="E42" s="3">
         <v>168000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>154000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>164000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>250000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2671,23 +2761,23 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3">
         <v>8000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2704,26 +2794,29 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E43" s="3">
         <v>46000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>65000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>83000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>67000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2736,8 +2829,8 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -2749,7 +2842,7 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>300</v>
@@ -2767,10 +2860,13 @@
         <v>300</v>
       </c>
       <c r="W43" s="3">
+        <v>300</v>
+      </c>
+      <c r="X43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,26 +2930,29 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E45" s="3">
         <v>71000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>88000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>102000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>85000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2866,8 +2965,8 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>100</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2876,49 +2975,52 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>6000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>6300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1315000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1690000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1927000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2314000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1246000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2931,59 +3033,62 @@
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3">
         <v>9000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>4000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>7000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2999,11 +3104,11 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>400</v>
@@ -3029,26 +3134,29 @@
       <c r="W47" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>37000</v>
+      </c>
+      <c r="E48" s="3">
         <v>51000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>62000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>68000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>67000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3061,20 +3169,20 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>100</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3135,32 +3246,35 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3">
         <v>4900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,26 +3406,29 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="E52" s="3">
         <v>10000</v>
       </c>
       <c r="F52" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G52" s="3">
         <v>11000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>22000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3321,8 +3441,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>100</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -3337,10 +3457,10 @@
         <v>100</v>
       </c>
       <c r="R52" s="3">
+        <v>100</v>
+      </c>
+      <c r="S52" s="3">
         <v>200</v>
-      </c>
-      <c r="S52" s="3">
-        <v>100</v>
       </c>
       <c r="T52" s="3">
         <v>100</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,26 +3542,29 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1365000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1751000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1999000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2397000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1342000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3451,41 +3577,44 @@
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3">
         <v>9100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,26 +3664,27 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E57" s="3">
         <v>568000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>672000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>888000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>785000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3566,8 +3697,8 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3">
-        <v>200</v>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -3576,16 +3707,16 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>700</v>
       </c>
       <c r="T57" s="3">
         <v>700</v>
@@ -3597,10 +3728,13 @@
         <v>700</v>
       </c>
       <c r="W57" s="3">
+        <v>700</v>
+      </c>
+      <c r="X57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3631,14 +3765,14 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3664,26 +3798,29 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E59" s="3">
         <v>290000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>363000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>444000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>406000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3696,59 +3833,62 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
       <c r="O59" s="3">
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
-      </c>
-      <c r="S59" s="3">
-        <v>200</v>
       </c>
       <c r="T59" s="3">
         <v>200</v>
       </c>
       <c r="U59" s="3">
+        <v>200</v>
+      </c>
+      <c r="V59" s="3">
         <v>300</v>
-      </c>
-      <c r="V59" s="3">
-        <v>200</v>
       </c>
       <c r="W59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>518000</v>
+      </c>
+      <c r="E60" s="3">
         <v>858000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1035000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1332000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1191000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3761,41 +3901,44 @@
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3">
         <v>300</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
       </c>
       <c r="O60" s="3">
         <v>200</v>
       </c>
       <c r="P60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
-      </c>
-      <c r="S60" s="3">
-        <v>900</v>
       </c>
       <c r="T60" s="3">
         <v>900</v>
       </c>
       <c r="U60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="V60" s="3">
         <v>1000</v>
       </c>
       <c r="W60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,26 +4002,29 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E62" s="3">
         <v>31000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>34000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>38000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>220000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3891,8 +4037,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3900,14 +4046,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
         <v>400</v>
-      </c>
-      <c r="R62" s="3">
-        <v>500</v>
       </c>
       <c r="S62" s="3">
         <v>500</v>
@@ -3919,13 +4065,16 @@
         <v>500</v>
       </c>
       <c r="V62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="W62" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,26 +4274,29 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>536000</v>
+      </c>
+      <c r="E66" s="3">
         <v>889000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1069000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1370000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1411000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4151,23 +4309,23 @@
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3">
         <v>300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>200</v>
       </c>
       <c r="O66" s="3">
         <v>200</v>
       </c>
       <c r="P66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1400</v>
       </c>
       <c r="S66" s="3">
         <v>1400</v>
@@ -4176,16 +4334,19 @@
         <v>1400</v>
       </c>
       <c r="U66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V66" s="3">
         <v>1500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4354,11 +4522,11 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
         <v>1536000</v>
       </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,26 +4640,29 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2487000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2423000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2312000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2184000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1615000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4501,41 +4675,44 @@
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3">
         <v>-23800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-22300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-22800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-22000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-21400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-21200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-21000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-20500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-20100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,26 +4912,29 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>829000</v>
+      </c>
+      <c r="E76" s="3">
         <v>862000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>930000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1027000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1605000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4761,41 +4947,44 @@
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3">
         <v>8800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>11000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>11200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,134 +5048,140 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-111000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-128000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-569000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>4</v>
+      <c r="H81" s="3">
+        <v>-99000</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K81" s="3">
         <v>-124000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-200</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
       </c>
       <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-500</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-400</v>
       </c>
       <c r="V81" s="3">
         <v>-400</v>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,23 +5217,24 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3000</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
       </c>
@@ -5051,8 +5250,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5060,11 +5259,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>100</v>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -5079,13 +5278,16 @@
         <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,23 +5623,26 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-344000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-204000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-354000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-24000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>4</v>
       </c>
@@ -5441,41 +5658,44 @@
       <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5510,12 +5731,12 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5531,8 +5752,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5540,14 +5761,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5562,10 +5783,13 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,23 +5921,26 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>14000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>88000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5726,20 +5956,20 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-5000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5757,10 +5987,13 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,23 +6287,26 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>5000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1047000</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6076,8 +6322,8 @@
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,23 +6423,26 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-326000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-215000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-345000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1111000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>4</v>
       </c>
@@ -6206,37 +6458,40 @@
       <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>-5400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,333 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>289000</v>
+      </c>
+      <c r="F8" s="3">
         <v>368000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>656000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>772000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>794000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>606000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>701000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>440000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>576000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>455000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>420000</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
-        <v>1400</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1400</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T8" s="3">
         <v>1400</v>
       </c>
       <c r="U8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W8" s="3">
         <v>1300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>125000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>169000</v>
+      </c>
+      <c r="F9" s="3">
         <v>201000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>272000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>335000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>342000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>241000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>208000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>156000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>188000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>109000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>74000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>200</v>
       </c>
       <c r="Q9" s="3">
+        <v>200</v>
+      </c>
+      <c r="R9" s="3">
+        <v>200</v>
+      </c>
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>800</v>
-      </c>
-      <c r="T9" s="3">
-        <v>100</v>
-      </c>
-      <c r="U9" s="3">
-        <v>100</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
       </c>
       <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y9" s="3">
         <v>900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>120000</v>
+      </c>
+      <c r="F10" s="3">
         <v>167000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>384000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>437000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>452000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>365000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>493000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>284000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>388000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>346000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>346000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3">
         <v>1100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,47 +1016,49 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>51000</v>
+      </c>
+      <c r="F12" s="3">
         <v>54000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>52000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>51000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>150000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>24000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>23000</v>
       </c>
       <c r="J12" s="3">
         <v>24000</v>
       </c>
       <c r="K12" s="3">
+        <v>23000</v>
+      </c>
+      <c r="L12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="M12" s="3">
         <v>22000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>19000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>17000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1059,8 +1086,14 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,23 +1160,29 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>6000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1156,32 +1195,32 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1195,8 +1234,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,109 +1337,117 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>353000</v>
+      </c>
+      <c r="F17" s="3">
         <v>431000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>770000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>898000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1305000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>684000</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="3">
         <v>696000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1700</v>
-      </c>
-      <c r="T17" s="3">
-        <v>400</v>
-      </c>
-      <c r="U17" s="3">
-        <v>500</v>
       </c>
       <c r="V17" s="3">
         <v>400</v>
       </c>
       <c r="W17" s="3">
+        <v>500</v>
+      </c>
+      <c r="X17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-63000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-114000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-126000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-511000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-78000</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-120000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1401,29 +1460,35 @@
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,41 +1513,43 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>8000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-57000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-20000</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1495,29 +1562,35 @@
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-100</v>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T20" s="3">
         <v>-1400</v>
       </c>
       <c r="U20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-1300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,32 +1598,32 @@
         <v>-58000</v>
       </c>
       <c r="E21" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-103000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-124000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-565000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-113000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1572,20 +1645,26 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,8 +1731,14 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1661,100 +1746,106 @@
         <v>-60000</v>
       </c>
       <c r="E23" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="G23" s="3">
         <v>-106000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-126000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-568000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-98000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-11000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-66000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-123000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>87000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>42000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1000</v>
       </c>
       <c r="P23" s="3">
         <v>-500</v>
       </c>
       <c r="Q23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-500</v>
       </c>
       <c r="V23" s="3">
         <v>-400</v>
       </c>
       <c r="W23" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="X23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F24" s="3">
         <v>4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>5000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1788,8 +1879,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-64000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-111000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-128000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-569000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-99000</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="3">
         <v>-124000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1000</v>
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P26" s="3">
         <v>-500</v>
       </c>
       <c r="Q26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-500</v>
       </c>
       <c r="V26" s="3">
         <v>-400</v>
       </c>
       <c r="W26" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="X26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-64000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-111000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-128000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-569000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-99000</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="3">
         <v>-124000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1000</v>
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P27" s="3">
         <v>-500</v>
       </c>
       <c r="Q27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-500</v>
       </c>
       <c r="V27" s="3">
         <v>-400</v>
       </c>
       <c r="W27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="X27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2102,34 +2223,40 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>1000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-100</v>
-      </c>
-      <c r="R29" s="3">
-        <v>200</v>
-      </c>
-      <c r="S29" s="3">
-        <v>100</v>
       </c>
       <c r="T29" s="3">
         <v>200</v>
       </c>
       <c r="U29" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,41 +2397,47 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-8000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>57000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>20000</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2311,97 +2450,109 @@
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="S32" s="3">
-        <v>100</v>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T32" s="3">
         <v>1400</v>
       </c>
       <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W32" s="3">
         <v>1300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>1300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-64000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-111000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-128000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-569000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-99000</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="3">
         <v>-124000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-400</v>
       </c>
       <c r="X33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-64000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-111000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-128000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-569000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-99000</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="3">
         <v>-124000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-400</v>
       </c>
       <c r="X35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,32 +2832,34 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>760000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1009000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1072000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1405000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1620000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1965000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>844000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2696,65 +2869,71 @@
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>6200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>9800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>5700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>6100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>6500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>6800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>7000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>260000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>150000</v>
+      </c>
+      <c r="F42" s="3">
         <v>143000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>168000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>154000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>164000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>250000</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2764,26 +2943,26 @@
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P42" s="3">
         <v>8000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>3000</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2797,32 +2976,38 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F43" s="3">
         <v>27000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>46000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>65000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>83000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>67000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2832,11 +3017,11 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>100</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -2845,10 +3030,10 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T43" s="3">
         <v>300</v>
@@ -2863,10 +3048,16 @@
         <v>300</v>
       </c>
       <c r="X43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,32 +3124,38 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F45" s="3">
         <v>73000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>71000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>88000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>102000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>85000</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2968,65 +3165,71 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>6000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>6300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1079000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1224000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1315000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1690000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1927000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2314000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1246000</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3036,65 +3239,71 @@
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
         <v>9000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>9300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>10100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>10500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>6400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>11900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>6900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>7000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>7400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>7700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F47" s="3">
         <v>7000</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>4000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>7000</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3107,14 +3316,14 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>400</v>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
         <v>400</v>
@@ -3137,32 +3346,38 @@
       <c r="X47" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F48" s="3">
         <v>37000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>51000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>62000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>68000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>67000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3172,23 +3387,23 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>100</v>
-      </c>
-      <c r="S48" s="3">
-        <v>100</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -3205,8 +3420,14 @@
       <c r="X48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3249,32 +3470,38 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="3">
         <v>4900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>5000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>5100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>5200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>5300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>5400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,32 +3642,38 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F52" s="3">
         <v>6000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>10000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>10000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>11000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>22000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3444,11 +3683,11 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>100</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
@@ -3460,13 +3699,13 @@
         <v>100</v>
       </c>
       <c r="S52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T52" s="3">
         <v>100</v>
       </c>
       <c r="U52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V52" s="3">
         <v>100</v>
@@ -3477,8 +3716,14 @@
       <c r="X52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,32 +3790,38 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1121000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1283000</v>
+      </c>
+      <c r="F54" s="3">
         <v>1365000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1751000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1999000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2397000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1342000</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3580,41 +3831,47 @@
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
         <v>9100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>9500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>11800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>12500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>12600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>12800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>13300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>13700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,32 +3924,34 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>252000</v>
+      </c>
+      <c r="F57" s="3">
         <v>286000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>568000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>672000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>888000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>785000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3700,29 +3961,29 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
-        <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>200</v>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>700</v>
-      </c>
-      <c r="U57" s="3">
-        <v>700</v>
       </c>
       <c r="V57" s="3">
         <v>700</v>
@@ -3731,10 +3992,16 @@
         <v>700</v>
       </c>
       <c r="X57" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3768,17 +4035,17 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3801,32 +4068,38 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>162000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>197000</v>
+      </c>
+      <c r="F59" s="3">
         <v>232000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>290000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>363000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>444000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>406000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3836,65 +4109,71 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>1100</v>
-      </c>
-      <c r="R59" s="3">
-        <v>200</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1500</v>
       </c>
       <c r="T59" s="3">
         <v>200</v>
       </c>
       <c r="U59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V59" s="3">
         <v>200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>300</v>
       </c>
       <c r="W59" s="3">
         <v>200</v>
       </c>
       <c r="X59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>449000</v>
+      </c>
+      <c r="F60" s="3">
         <v>518000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>858000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1035000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1332000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1191000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3904,41 +4183,47 @@
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,32 +4290,38 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F62" s="3">
         <v>18000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>31000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>34000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>38000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>220000</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4040,26 +4331,26 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
         <v>400</v>
-      </c>
-      <c r="S62" s="3">
-        <v>500</v>
-      </c>
-      <c r="T62" s="3">
-        <v>500</v>
       </c>
       <c r="U62" s="3">
         <v>500</v>
@@ -4068,13 +4359,19 @@
         <v>500</v>
       </c>
       <c r="W62" s="3">
+        <v>500</v>
+      </c>
+      <c r="X62" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y62" s="3">
         <v>600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,32 +4586,38 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>366000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>465000</v>
+      </c>
+      <c r="F66" s="3">
         <v>536000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>889000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1069000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1370000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1411000</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4312,41 +4627,47 @@
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1400</v>
-      </c>
-      <c r="T66" s="3">
-        <v>1400</v>
       </c>
       <c r="U66" s="3">
         <v>1400</v>
       </c>
       <c r="V66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X66" s="3">
         <v>1500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4525,14 +4860,14 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>1536000</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,32 +4984,38 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2605000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2545000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2487000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2423000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2312000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2184000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1615000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4678,41 +5025,47 @@
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>-23800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-23300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-22300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-22800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-22000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-21400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-21200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-21000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-20500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-20100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,32 +5280,38 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>755000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>818000</v>
+      </c>
+      <c r="F76" s="3">
         <v>829000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>862000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>930000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1027000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1605000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4950,41 +5321,47 @@
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
         <v>8800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>9300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>10300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>9700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>10500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>11000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>11200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>11300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>11700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>12100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-64000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-111000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-128000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-569000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-99000</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" s="3">
         <v>-124000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-400</v>
       </c>
       <c r="X81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5613,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5227,7 +5624,7 @@
         <v>2000</v>
       </c>
       <c r="E83" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F83" s="3">
         <v>2000</v>
@@ -5235,11 +5632,11 @@
       <c r="G83" s="3">
         <v>3000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I83" s="3">
+        <v>3000</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -5253,23 +5650,23 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
@@ -5281,13 +5678,19 @@
         <v>100</v>
       </c>
       <c r="W83" s="3">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y83" s="3">
         <v>200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,29 +6053,35 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-146000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-344000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-204000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-354000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-24000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>4</v>
       </c>
@@ -5661,41 +6094,47 @@
       <c r="M89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,29 +6159,31 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1000</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5755,26 +6196,26 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -5786,10 +6227,16 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,29 +6377,35 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-105000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F94" s="3">
         <v>18000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-16000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>14000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>88000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
@@ -5959,23 +6418,23 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3">
         <v>-5000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-3000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -5990,10 +6449,16 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6775,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,20 +6790,20 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-5000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1047000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6325,11 +6816,11 @@
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -6358,8 +6849,14 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,29 +6923,35 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-251000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-326000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-215000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-345000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1111000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>4</v>
       </c>
@@ -6461,37 +6964,43 @@
       <c r="M102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
         <v>-5400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-3700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>5500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,157 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E8" s="3">
         <v>189000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>289000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>368000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>656000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>772000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>794000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>606000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>701000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>440000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>576000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>455000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>420000</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
@@ -821,8 +825,8 @@
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T8" s="3">
-        <v>1400</v>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U8" s="3">
         <v>1400</v>
@@ -831,60 +835,63 @@
         <v>1400</v>
       </c>
       <c r="W8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="X8" s="3">
         <v>1300</v>
       </c>
       <c r="Y8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="Z8" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E9" s="3">
         <v>125000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>169000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>201000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>272000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>335000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>342000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>241000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>208000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>156000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>188000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>109000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>74000</v>
-      </c>
-      <c r="P9" s="3">
-        <v>200</v>
       </c>
       <c r="Q9" s="3">
         <v>200</v>
@@ -893,16 +900,16 @@
         <v>200</v>
       </c>
       <c r="S9" s="3">
+        <v>200</v>
+      </c>
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>800</v>
-      </c>
-      <c r="V9" s="3">
-        <v>100</v>
       </c>
       <c r="W9" s="3">
         <v>100</v>
@@ -911,54 +918,57 @@
         <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E10" s="3">
         <v>64000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>120000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>167000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>384000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>437000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>452000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>365000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>493000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>284000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>388000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>346000</v>
       </c>
       <c r="O10" s="3">
         <v>346000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="P10" s="3">
+        <v>346000</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
@@ -969,29 +979,32 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3">
         <v>1100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1300</v>
-      </c>
-      <c r="W10" s="3">
-        <v>1200</v>
       </c>
       <c r="X10" s="3">
         <v>1200</v>
       </c>
       <c r="Y10" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="Z10" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,50 +1031,51 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E12" s="3">
         <v>66000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>51000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>54000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>52000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>51000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>150000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>17000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,26 +1183,29 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>4000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>6000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1201,29 +1221,29 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>400</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,118 +1365,122 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>225000</v>
+      </c>
+      <c r="E17" s="3">
         <v>251000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>353000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>431000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>770000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>898000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1305000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>684000</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="3">
         <v>696000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-62000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-64000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-63000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-114000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-126000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-511000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-78000</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-120000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1466,29 +1496,32 @@
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1524,35 +1558,35 @@
         <v>2000</v>
       </c>
       <c r="E20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F20" s="3">
         <v>5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-57000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-20000</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-3000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1568,65 +1602,68 @@
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-1300</v>
       </c>
       <c r="X20" s="3">
         <v>-1300</v>
       </c>
       <c r="Y20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-58000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-57000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-58000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-103000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-124000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-565000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-113000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1651,20 +1688,23 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-200</v>
       </c>
       <c r="Z21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,73 +1777,76 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-60000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-59000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-60000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-106000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-126000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-568000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-98000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-66000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-123000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>87000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>42000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-400</v>
       </c>
       <c r="Y23" s="3">
         <v>-400</v>
@@ -1811,44 +1854,47 @@
       <c r="Z23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1000</v>
       </c>
       <c r="J24" s="3">
         <v>1000</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>1000</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,73 +2008,76 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-60000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-58000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-64000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-111000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-128000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-569000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-99000</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="3">
         <v>-124000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-400</v>
       </c>
       <c r="Y26" s="3">
         <v>-400</v>
@@ -2033,73 +2085,76 @@
       <c r="Z26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-60000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-58000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-64000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-111000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-128000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-569000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-99000</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="3">
         <v>-124000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-400</v>
       </c>
       <c r="Y27" s="3">
         <v>-400</v>
@@ -2107,8 +2162,11 @@
       <c r="Z27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2229,34 +2290,37 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>1000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>200</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>4</v>
+      <c r="Y29" s="3">
+        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2412,35 +2482,35 @@
         <v>-2000</v>
       </c>
       <c r="E32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>57000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>20000</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>3000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2456,94 +2526,97 @@
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="3">
         <v>1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1400</v>
-      </c>
-      <c r="W32" s="3">
-        <v>1300</v>
       </c>
       <c r="X32" s="3">
         <v>1300</v>
       </c>
       <c r="Y32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-60000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-58000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-64000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-111000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-128000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-569000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-99000</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="3">
         <v>-124000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-400</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-200</v>
       </c>
       <c r="V33" s="3">
         <v>-200</v>
       </c>
       <c r="W33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X33" s="3">
         <v>-500</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-400</v>
       </c>
       <c r="Y33" s="3">
         <v>-400</v>
@@ -2551,8 +2624,11 @@
       <c r="Z33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,73 +2701,76 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-60000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-58000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-64000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-111000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-128000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-569000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-99000</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="3">
         <v>-124000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-400</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-200</v>
       </c>
       <c r="V35" s="3">
         <v>-200</v>
       </c>
       <c r="W35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X35" s="3">
         <v>-500</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-400</v>
       </c>
       <c r="Y35" s="3">
         <v>-400</v>
@@ -2699,87 +2778,93 @@
       <c r="Z35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,35 +2920,36 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>693000</v>
+      </c>
+      <c r="E41" s="3">
         <v>760000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1009000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1072000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1405000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1620000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1965000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>844000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2875,68 +2962,71 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6800</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>7000</v>
       </c>
       <c r="Z41" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>254000</v>
+      </c>
+      <c r="E42" s="3">
         <v>260000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>150000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>143000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>168000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>154000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>164000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>250000</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2949,23 +3039,23 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="3">
         <v>8000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3000</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2982,35 +3072,38 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E43" s="3">
         <v>14000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>17000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>27000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>46000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>65000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>83000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>67000</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3023,8 +3116,8 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -3036,7 +3129,7 @@
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>300</v>
@@ -3054,10 +3147,13 @@
         <v>300</v>
       </c>
       <c r="Z43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,35 +3226,38 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E45" s="3">
         <v>45000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>48000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>73000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>71000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>88000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>102000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>85000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3171,8 +3270,8 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>100</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -3181,58 +3280,61 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>6000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>6300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1079000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1224000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1315000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1690000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1927000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2314000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1246000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3245,68 +3347,71 @@
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3">
         <v>9000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>11900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>9000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>17000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>7000</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>4000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3322,11 +3427,11 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
         <v>400</v>
@@ -3352,35 +3457,38 @@
       <c r="Z47" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E48" s="3">
         <v>29000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>35000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>37000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>51000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>62000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>68000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>67000</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3393,20 +3501,20 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>100</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3476,32 +3587,35 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3">
         <v>4900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3657,26 +3777,26 @@
         <v>4000</v>
       </c>
       <c r="E52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F52" s="3">
         <v>7000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>6000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>10000</v>
       </c>
       <c r="H52" s="3">
         <v>10000</v>
       </c>
       <c r="I52" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J52" s="3">
         <v>11000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>22000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3689,8 +3809,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>100</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>100</v>
@@ -3705,10 +3825,10 @@
         <v>100</v>
       </c>
       <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
         <v>200</v>
-      </c>
-      <c r="V52" s="3">
-        <v>100</v>
       </c>
       <c r="W52" s="3">
         <v>100</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,35 +3919,38 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1028000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1121000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1283000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1365000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1751000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1999000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2397000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1342000</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3837,41 +3963,44 @@
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3">
         <v>9100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>13300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>13700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,35 +4056,36 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E57" s="3">
         <v>190000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>252000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>286000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>568000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>672000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>888000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>785000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3967,8 +4098,8 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
-        <v>200</v>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
@@ -3977,16 +4108,16 @@
         <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>700</v>
       </c>
       <c r="W57" s="3">
         <v>700</v>
@@ -3998,10 +4129,13 @@
         <v>700</v>
       </c>
       <c r="Z57" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4041,14 +4175,14 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4074,35 +4208,38 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E59" s="3">
         <v>162000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>197000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>232000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>290000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>363000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>444000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>406000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4115,68 +4252,71 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1500</v>
-      </c>
-      <c r="V59" s="3">
-        <v>200</v>
       </c>
       <c r="W59" s="3">
         <v>200</v>
       </c>
       <c r="X59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y59" s="3">
         <v>300</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>200</v>
       </c>
       <c r="Z59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>333000</v>
+      </c>
+      <c r="E60" s="3">
         <v>352000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>449000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>518000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>858000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1035000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1332000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1191000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4189,41 +4329,44 @@
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3">
         <v>300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>200</v>
       </c>
       <c r="R60" s="3">
         <v>200</v>
       </c>
       <c r="S60" s="3">
+        <v>200</v>
+      </c>
+      <c r="T60" s="3">
         <v>1200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
-      </c>
-      <c r="V60" s="3">
-        <v>900</v>
       </c>
       <c r="W60" s="3">
         <v>900</v>
       </c>
       <c r="X60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="Y60" s="3">
         <v>1000</v>
       </c>
       <c r="Z60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4296,35 +4439,38 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E62" s="3">
         <v>14000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>31000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>34000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>38000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>220000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4337,8 +4483,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4346,14 +4492,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3">
         <v>400</v>
-      </c>
-      <c r="U62" s="3">
-        <v>500</v>
       </c>
       <c r="V62" s="3">
         <v>500</v>
@@ -4365,13 +4511,16 @@
         <v>500</v>
       </c>
       <c r="Y62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Z62" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,35 +4747,38 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E66" s="3">
         <v>366000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>465000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>536000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>889000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1069000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1370000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1411000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4633,23 +4791,23 @@
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3">
         <v>300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>200</v>
       </c>
       <c r="R66" s="3">
         <v>200</v>
       </c>
       <c r="S66" s="3">
+        <v>200</v>
+      </c>
+      <c r="T66" s="3">
         <v>1200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1400</v>
       </c>
       <c r="V66" s="3">
         <v>1400</v>
@@ -4658,16 +4816,19 @@
         <v>1400</v>
       </c>
       <c r="X66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4866,11 +5034,11 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>1536000</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,35 +5161,38 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2695000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2605000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2545000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2487000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2423000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2312000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2184000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1615000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5031,41 +5205,44 @@
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-23300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-22300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-22800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-22000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-21400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-21200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-21000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-20500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-20100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,35 +5469,38 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>682000</v>
+      </c>
+      <c r="E76" s="3">
         <v>755000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>818000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>829000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>862000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>930000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1027000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1605000</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5327,41 +5513,44 @@
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>8800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>11200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>11300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,152 +5623,158 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-90000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-60000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-58000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-64000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-111000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-128000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-569000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-99000</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" s="3">
         <v>-124000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-400</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-200</v>
       </c>
       <c r="V81" s="3">
         <v>-200</v>
       </c>
       <c r="W81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X81" s="3">
         <v>-500</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-400</v>
       </c>
       <c r="Y81" s="3">
         <v>-400</v>
@@ -5587,8 +5782,11 @@
       <c r="Z81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5630,17 +5829,17 @@
         <v>2000</v>
       </c>
       <c r="G83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H83" s="3">
         <v>3000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>2000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
@@ -5656,8 +5855,8 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -5665,11 +5864,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3">
-        <v>100</v>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
@@ -5684,13 +5883,16 @@
         <v>100</v>
       </c>
       <c r="Y83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,32 +6273,35 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-146000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-49000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-344000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-204000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-354000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-24000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>4</v>
       </c>
@@ -6100,41 +6317,44 @@
       <c r="O89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-700</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,32 +6381,33 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6202,8 +6423,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6211,14 +6432,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6233,10 +6454,13 @@
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,32 +6610,35 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-105000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>18000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>14000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>88000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6424,20 +6654,20 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -6455,10 +6685,13 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,32 +7024,35 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-4000</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>7000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1047000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
@@ -6822,8 +7068,8 @@
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -6855,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,32 +7178,35 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-251000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-61000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-326000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-215000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-345000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1111000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>4</v>
       </c>
@@ -6970,37 +7222,40 @@
       <c r="O102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t>WISH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>125000</v>
+      </c>
+      <c r="F8" s="3">
         <v>134000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>189000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>289000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>368000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>656000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>772000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>794000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>606000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>701000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>440000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>576000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>455000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>420000</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="3">
-        <v>1400</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1400</v>
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W8" s="3">
         <v>1400</v>
       </c>
       <c r="X8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z8" s="3">
         <v>1300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>91000</v>
+      </c>
+      <c r="F9" s="3">
         <v>92000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>125000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>169000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>201000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>272000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>335000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>342000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>241000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>208000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>156000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>188000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>109000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>74000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>200</v>
-      </c>
-      <c r="R9" s="3">
-        <v>200</v>
       </c>
       <c r="S9" s="3">
         <v>200</v>
       </c>
       <c r="T9" s="3">
+        <v>200</v>
+      </c>
+      <c r="U9" s="3">
+        <v>200</v>
+      </c>
+      <c r="V9" s="3">
         <v>400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>800</v>
-      </c>
-      <c r="W9" s="3">
-        <v>100</v>
-      </c>
-      <c r="X9" s="3">
-        <v>100</v>
       </c>
       <c r="Y9" s="3">
         <v>100</v>
       </c>
       <c r="Z9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="3">
         <v>900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F10" s="3">
         <v>42000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>64000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>120000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>167000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>384000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>437000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>452000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>365000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>493000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>284000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>388000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>346000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>346000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
         <v>1100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,56 +1057,58 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>42000</v>
+      </c>
+      <c r="F12" s="3">
         <v>46000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>66000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>51000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>54000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>52000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>51000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>150000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>24000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>23000</v>
       </c>
       <c r="M12" s="3">
         <v>24000</v>
       </c>
       <c r="N12" s="3">
+        <v>23000</v>
+      </c>
+      <c r="O12" s="3">
+        <v>24000</v>
+      </c>
+      <c r="P12" s="3">
         <v>22000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>19000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>17000</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,32 +1219,38 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>4000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>6000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1224,32 +1263,32 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>400</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1263,8 +1302,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,127 +1417,135 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>253000</v>
+      </c>
+      <c r="F17" s="3">
         <v>225000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>251000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>353000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>431000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>770000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>898000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1305000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>684000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
         <v>696000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1700</v>
-      </c>
-      <c r="W17" s="3">
-        <v>400</v>
-      </c>
-      <c r="X17" s="3">
-        <v>500</v>
       </c>
       <c r="Y17" s="3">
         <v>400</v>
       </c>
       <c r="Z17" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB17" s="3">
         <v>1700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-117000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-91000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-62000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-64000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-63000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-114000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-126000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-511000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-78000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-120000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1499,29 +1558,35 @@
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>1000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,50 +1614,52 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>5000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>8000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-57000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-20000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>-3000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1605,71 +1672,77 @@
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-100</v>
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W20" s="3">
         <v>-1400</v>
       </c>
       <c r="X20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-87000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-58000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-57000</v>
       </c>
       <c r="G21" s="3">
         <v>-58000</v>
       </c>
       <c r="H21" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="J21" s="3">
         <v>-103000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-124000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-565000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-113000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1691,20 +1764,26 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,127 +1859,139 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-112000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-89000</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-60000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-59000</v>
       </c>
       <c r="G23" s="3">
         <v>-60000</v>
       </c>
       <c r="H23" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-106000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-126000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-568000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-98000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-11000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-66000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-123000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>87000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>42000</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-1000</v>
       </c>
       <c r="S23" s="3">
         <v>-500</v>
       </c>
       <c r="T23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-500</v>
       </c>
       <c r="Y23" s="3">
         <v>-400</v>
       </c>
       <c r="Z23" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="AA23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>4000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>5000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>1000</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +2025,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-90000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-60000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-58000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-64000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-111000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-128000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-569000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-99000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3">
         <v>-124000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-1000</v>
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S26" s="3">
         <v>-500</v>
       </c>
       <c r="T26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-500</v>
       </c>
       <c r="Y26" s="3">
         <v>-400</v>
       </c>
       <c r="Z26" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="AA26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-90000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-60000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-58000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-64000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-111000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-128000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-569000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-99000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="3">
         <v>-124000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-1000</v>
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S27" s="3">
         <v>-500</v>
       </c>
       <c r="T27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-500</v>
       </c>
       <c r="Y27" s="3">
         <v>-400</v>
       </c>
       <c r="Z27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="AA27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2293,34 +2414,40 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>1000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-100</v>
-      </c>
-      <c r="U29" s="3">
-        <v>200</v>
-      </c>
-      <c r="V29" s="3">
-        <v>100</v>
       </c>
       <c r="W29" s="3">
         <v>200</v>
       </c>
       <c r="X29" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,50 +2606,56 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-5000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-8000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>57000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>20000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>3000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2529,106 +2668,118 @@
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="V32" s="3">
-        <v>100</v>
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W32" s="3">
         <v>1400</v>
       </c>
       <c r="X32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z32" s="3">
         <v>1300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>1300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-90000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-60000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-58000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-64000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-111000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-128000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-569000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-99000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3">
         <v>-124000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-400</v>
       </c>
       <c r="AA33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-90000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-60000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-58000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-64000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-111000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-128000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-569000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-99000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3">
         <v>-124000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-400</v>
       </c>
       <c r="AA35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,41 +3092,43 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>506000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>587000</v>
+      </c>
+      <c r="F41" s="3">
         <v>693000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>760000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1009000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1072000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1405000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1620000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1965000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>844000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2965,74 +3138,80 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>9800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>5700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>5600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>6100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>6500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>6800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>7000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>213000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>250000</v>
+      </c>
+      <c r="F42" s="3">
         <v>254000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>260000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>150000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>143000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>168000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>154000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>164000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>250000</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3042,26 +3221,26 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S42" s="3">
         <v>8000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>3000</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -3075,41 +3254,47 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F43" s="3">
         <v>12000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>14000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>17000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>27000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>46000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>65000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>83000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>67000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3119,11 +3304,11 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>100</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
@@ -3132,10 +3317,10 @@
         <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
         <v>300</v>
@@ -3150,10 +3335,16 @@
         <v>300</v>
       </c>
       <c r="AA43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,41 +3420,47 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>40000</v>
+      </c>
+      <c r="F45" s="3">
         <v>41000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>45000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>48000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>73000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>71000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>88000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>102000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>85000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3273,74 +3470,80 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
-      <c r="R45" s="3">
-        <v>100</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>6000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>6300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>777000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>890000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1079000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1224000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1315000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1690000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1927000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2314000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1246000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3350,41 +3553,47 @@
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
         <v>9000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>9300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>10100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>10500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>6400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>11900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>6900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>7000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>7400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>7700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3392,32 +3601,32 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>9000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>17000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>7000</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>4000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>7000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3430,14 +3639,14 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>400</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U47" s="3">
         <v>400</v>
@@ -3460,41 +3669,47 @@
       <c r="AA47" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>18000</v>
+      </c>
+      <c r="F48" s="3">
         <v>24000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>29000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>35000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>37000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>51000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>62000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>68000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>67000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3504,23 +3719,23 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U48" s="3">
-        <v>100</v>
-      </c>
-      <c r="V48" s="3">
-        <v>100</v>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
@@ -3537,8 +3752,14 @@
       <c r="AA48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3590,32 +3811,38 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W49" s="3">
         <v>4900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>5000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>5100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>5200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>5300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>5400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +4001,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3777,32 +4016,32 @@
         <v>4000</v>
       </c>
       <c r="E52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F52" s="3">
         <v>4000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H52" s="3">
         <v>7000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>6000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>10000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>10000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>11000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>22000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3812,11 +4051,11 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>100</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
@@ -3828,13 +4067,13 @@
         <v>100</v>
       </c>
       <c r="V52" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W52" s="3">
         <v>100</v>
       </c>
       <c r="X52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y52" s="3">
         <v>100</v>
@@ -3845,8 +4084,14 @@
       <c r="AA52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,41 +4167,47 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>799000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>911000</v>
+      </c>
+      <c r="F54" s="3">
         <v>1028000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1121000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1283000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1365000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1751000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1999000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2397000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1342000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3966,41 +4217,47 @@
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
         <v>9100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>9500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>10900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>11800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>12500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>12600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>12800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>13300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>13700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,41 +4316,43 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>177000</v>
+      </c>
+      <c r="F57" s="3">
         <v>187000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>190000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>252000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>286000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>568000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>672000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>888000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>785000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
@@ -4101,29 +4362,29 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3">
-        <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>200</v>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
-      </c>
-      <c r="W57" s="3">
-        <v>700</v>
-      </c>
-      <c r="X57" s="3">
-        <v>700</v>
       </c>
       <c r="Y57" s="3">
         <v>700</v>
@@ -4132,10 +4393,16 @@
         <v>700</v>
       </c>
       <c r="AA57" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4178,17 +4445,17 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4211,41 +4478,47 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>149000</v>
+      </c>
+      <c r="F59" s="3">
         <v>146000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>162000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>197000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>232000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>290000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>363000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>444000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>406000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4255,74 +4528,80 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>1100</v>
-      </c>
-      <c r="U59" s="3">
-        <v>200</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1500</v>
       </c>
       <c r="W59" s="3">
         <v>200</v>
       </c>
       <c r="X59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y59" s="3">
         <v>200</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>300</v>
       </c>
       <c r="Z59" s="3">
         <v>200</v>
       </c>
       <c r="AA59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>326000</v>
+      </c>
+      <c r="F60" s="3">
         <v>333000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>352000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>449000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>518000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>858000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1035000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1332000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1191000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4332,41 +4611,47 @@
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4727,14 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4451,32 +4742,32 @@
         <v>13000</v>
       </c>
       <c r="E62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F62" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G62" s="3">
         <v>14000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>16000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>18000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>31000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>34000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>38000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>220000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4486,26 +4777,26 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3">
         <v>400</v>
-      </c>
-      <c r="V62" s="3">
-        <v>500</v>
-      </c>
-      <c r="W62" s="3">
-        <v>500</v>
       </c>
       <c r="X62" s="3">
         <v>500</v>
@@ -4514,13 +4805,19 @@
         <v>500</v>
       </c>
       <c r="Z62" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB62" s="3">
         <v>600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,41 +5059,47 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>337000</v>
+      </c>
+      <c r="F66" s="3">
         <v>346000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>366000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>465000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>536000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>889000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1069000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1370000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1411000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4794,41 +5109,47 @@
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1300</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1400</v>
-      </c>
-      <c r="W66" s="3">
-        <v>1400</v>
       </c>
       <c r="X66" s="3">
         <v>1400</v>
       </c>
       <c r="Y66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA66" s="3">
         <v>1500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5037,14 +5372,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>1536000</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,41 +5505,47 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2929000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2819000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2695000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2605000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2545000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2487000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2423000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2312000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2184000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1615000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5208,41 +5555,47 @@
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>-23800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-23300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-22300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-22800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-22000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-21400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-21200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-21000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-20500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-20100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,41 +5837,47 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>477000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>574000</v>
+      </c>
+      <c r="F76" s="3">
         <v>682000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>755000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>818000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>829000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>862000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>930000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1027000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1605000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5516,41 +5887,47 @@
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>8800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>9300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>10300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>9700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>10500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>11000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>11200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>11300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>11700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>12100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-90000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-60000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-58000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-64000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-111000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-128000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-569000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-99000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" s="3">
         <v>-124000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-400</v>
       </c>
       <c r="AA81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,16 +6209,18 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="E83" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F83" s="3">
         <v>2000</v>
@@ -5832,7 +6229,7 @@
         <v>2000</v>
       </c>
       <c r="H83" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="I83" s="3">
         <v>2000</v>
@@ -5840,11 +6237,11 @@
       <c r="J83" s="3">
         <v>3000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L83" s="3">
+        <v>3000</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -5858,23 +6255,23 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
-      </c>
-      <c r="V83" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
@@ -5886,13 +6283,19 @@
         <v>100</v>
       </c>
       <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB83" s="3">
         <v>200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,38 +6703,44 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-67000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-146000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-49000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-344000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-204000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-354000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-24000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>4</v>
       </c>
@@ -6320,41 +6753,47 @@
       <c r="P89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-700</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6821,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6391,29 +6832,29 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6426,26 +6867,26 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6457,10 +6898,16 @@
         <v>0</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,38 +7066,44 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F94" s="3">
         <v>14000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-105000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-19000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>18000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-16000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>14000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>88000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
@@ -6657,23 +7116,23 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S94" s="3">
         <v>-5000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-3000</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
@@ -6688,10 +7147,16 @@
         <v>0</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,38 +7512,44 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>7000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>5000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1047000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7071,11 +7562,11 @@
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -7104,31 +7595,37 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-8000</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -7181,38 +7678,44 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-66000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-251000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-61000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-326000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-215000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-345000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1111000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>4</v>
       </c>
@@ -7225,37 +7728,43 @@
       <c r="P102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>-5400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-3700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>5500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,173 +665,177 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E8" s="3">
         <v>123000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>125000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>134000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>189000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>289000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>368000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>656000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>772000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>794000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>606000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>701000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>440000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>576000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>455000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>420000</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
@@ -841,8 +845,8 @@
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="3">
-        <v>1400</v>
+      <c r="W8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X8" s="3">
         <v>1400</v>
@@ -851,69 +855,72 @@
         <v>1400</v>
       </c>
       <c r="Z8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="AA8" s="3">
         <v>1300</v>
       </c>
       <c r="AB8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="AC8" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E9" s="3">
         <v>97000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>91000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>92000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>125000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>169000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>201000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>272000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>335000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>342000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>241000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>208000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>156000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>188000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>109000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>74000</v>
-      </c>
-      <c r="S9" s="3">
-        <v>200</v>
       </c>
       <c r="T9" s="3">
         <v>200</v>
@@ -922,16 +929,16 @@
         <v>200</v>
       </c>
       <c r="V9" s="3">
+        <v>200</v>
+      </c>
+      <c r="W9" s="3">
         <v>400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>800</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>100</v>
       </c>
       <c r="Z9" s="3">
         <v>100</v>
@@ -940,63 +947,66 @@
         <v>100</v>
       </c>
       <c r="AB9" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="AC9" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E10" s="3">
         <v>26000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>34000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>42000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>64000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>120000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>167000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>384000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>437000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>452000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>365000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>493000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>284000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>388000</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>346000</v>
       </c>
       <c r="R10" s="3">
         <v>346000</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
+      <c r="S10" s="3">
+        <v>346000</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>4</v>
@@ -1007,29 +1017,32 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3">
         <v>1100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1300</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>1200</v>
       </c>
       <c r="AA10" s="3">
         <v>1200</v>
       </c>
       <c r="AB10" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="AC10" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,59 +1072,60 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E12" s="3">
         <v>40000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>42000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>46000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>66000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>51000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>54000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>52000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>51000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>150000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>24000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>24000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>22000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>19000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>17000</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,35 +1242,38 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-5000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>6000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1269,29 +1289,29 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>400</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1308,8 +1328,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,136 +1445,140 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E17" s="3">
         <v>240000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>253000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>225000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>251000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>353000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>431000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>770000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>898000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1305000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>684000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
         <v>696000</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-117000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-128000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-91000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-62000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-64000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-63000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-114000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-126000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-511000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-78000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-120000</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1564,29 +1594,32 @@
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3">
         <v>800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,53 +1649,54 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>5000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>2000</v>
       </c>
       <c r="G20" s="3">
         <v>2000</v>
       </c>
       <c r="H20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="3">
         <v>5000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-57000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-20000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1678,74 +1712,77 @@
       <c r="V20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-1300</v>
       </c>
       <c r="AA20" s="3">
         <v>-1300</v>
       </c>
       <c r="AB20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-111000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-121000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-87000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-58000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-57000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-58000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-103000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-124000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-565000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-113000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1770,20 +1807,23 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-300</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>-200</v>
       </c>
       <c r="AC21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,82 +1905,85 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-112000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-122000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-89000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-60000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-59000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-60000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-106000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-126000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-568000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-98000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-66000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-123000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>87000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>42000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-500</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>-400</v>
       </c>
       <c r="AB23" s="3">
         <v>-400</v>
@@ -1948,53 +1991,56 @@
       <c r="AC23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1000</v>
       </c>
       <c r="M24" s="3">
         <v>1000</v>
       </c>
       <c r="N24" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>1000</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -2031,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,82 +2163,85 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-110000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-124000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-90000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-60000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-58000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-64000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-111000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-128000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-569000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-99000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-124000</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-500</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-400</v>
       </c>
       <c r="AB26" s="3">
         <v>-400</v>
@@ -2197,82 +2249,85 @@
       <c r="AC26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-110000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-124000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-90000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-60000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-58000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-64000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-111000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-128000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-569000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-99000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-124000</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-500</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>-400</v>
       </c>
       <c r="AB27" s="3">
         <v>-400</v>
@@ -2280,8 +2335,11 @@
       <c r="AC27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2420,34 +2481,37 @@
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>1000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>200</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-      <c r="AB29" s="3" t="s">
-        <v>4</v>
+      <c r="AB29" s="3">
+        <v>0</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,53 +2679,56 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-2000</v>
       </c>
       <c r="G32" s="3">
         <v>-2000</v>
       </c>
       <c r="H32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-5000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>57000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>20000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3">
         <v>3000</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2674,103 +2744,106 @@
       <c r="V32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3">
         <v>1400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1400</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>1300</v>
       </c>
       <c r="AA32" s="3">
         <v>1300</v>
       </c>
       <c r="AB32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-110000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-124000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-90000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-60000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-58000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-64000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-111000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-128000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-569000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-99000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-124000</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-200</v>
       </c>
       <c r="Y33" s="3">
         <v>-200</v>
       </c>
       <c r="Z33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-500</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>-400</v>
       </c>
       <c r="AB33" s="3">
         <v>-400</v>
@@ -2778,8 +2851,11 @@
       <c r="AC33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,82 +2937,85 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-110000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-124000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-90000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-60000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-58000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-64000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-111000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-128000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-569000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-99000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-124000</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-200</v>
       </c>
       <c r="Y35" s="3">
         <v>-200</v>
       </c>
       <c r="Z35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-500</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>-400</v>
       </c>
       <c r="AB35" s="3">
         <v>-400</v>
@@ -2944,96 +3023,102 @@
       <c r="AC35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,44 +3180,45 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>371000</v>
+      </c>
+      <c r="E41" s="3">
         <v>506000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>587000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>693000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>760000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1009000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1072000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1405000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1620000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1965000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>844000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3144,77 +3231,80 @@
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6800</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>7000</v>
       </c>
       <c r="AC41" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E42" s="3">
         <v>213000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>250000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>254000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>260000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>150000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>143000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>168000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>154000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>164000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>250000</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3227,23 +3317,23 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T42" s="3">
         <v>8000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3000</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -3260,44 +3350,47 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E43" s="3">
         <v>14000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>13000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>12000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>14000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>27000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>46000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>65000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>83000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>67000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3310,8 +3403,8 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>100</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
@@ -3323,7 +3416,7 @@
         <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
         <v>300</v>
@@ -3341,10 +3434,13 @@
         <v>300</v>
       </c>
       <c r="AC43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,44 +3522,47 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E45" s="3">
         <v>44000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>40000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>41000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>45000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>48000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>73000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>71000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>88000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>102000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>85000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3476,8 +3575,8 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>100</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -3486,67 +3585,70 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
         <v>6000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>6300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>671000</v>
+      </c>
+      <c r="E46" s="3">
         <v>777000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>890000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1079000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1224000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1315000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1690000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1927000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2314000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1246000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3559,46 +3661,49 @@
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="3">
         <v>9000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>11900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
@@ -3607,29 +3712,29 @@
         <v>0</v>
       </c>
       <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
         <v>9000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>17000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>7000</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>4000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3645,11 +3750,11 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="V47" s="3">
         <v>400</v>
@@ -3675,8 +3780,11 @@
       <c r="AC47" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3687,32 +3795,32 @@
         <v>18000</v>
       </c>
       <c r="F48" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G48" s="3">
         <v>24000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>35000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>37000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>51000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>62000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>68000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>67000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3725,20 +3833,20 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W48" s="3">
-        <v>100</v>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X48" s="3">
         <v>100</v>
@@ -3758,8 +3866,11 @@
       <c r="AC48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3817,32 +3928,35 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X49" s="3">
         <v>4900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4016,35 +4136,35 @@
         <v>4000</v>
       </c>
       <c r="E52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F52" s="3">
         <v>3000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>4000</v>
       </c>
       <c r="G52" s="3">
         <v>4000</v>
       </c>
       <c r="H52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I52" s="3">
         <v>7000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>6000</v>
-      </c>
-      <c r="J52" s="3">
-        <v>10000</v>
       </c>
       <c r="K52" s="3">
         <v>10000</v>
       </c>
       <c r="L52" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M52" s="3">
         <v>11000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>22000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4057,8 +4177,8 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>100</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>100</v>
@@ -4073,10 +4193,10 @@
         <v>100</v>
       </c>
       <c r="X52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y52" s="3">
         <v>200</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>100</v>
       </c>
       <c r="Z52" s="3">
         <v>100</v>
@@ -4090,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,44 +4296,47 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>693000</v>
+      </c>
+      <c r="E54" s="3">
         <v>799000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>911000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1028000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1121000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1283000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1365000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1751000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1999000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2397000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1342000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
@@ -4223,41 +4349,44 @@
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="3">
         <v>9100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>13300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>13700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,44 +4448,45 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E57" s="3">
         <v>173000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>177000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>187000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>190000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>252000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>286000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>568000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>672000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>888000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>785000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
@@ -4368,8 +4499,8 @@
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S57" s="3">
-        <v>200</v>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
@@ -4378,16 +4509,16 @@
         <v>200</v>
       </c>
       <c r="V57" s="3">
+        <v>200</v>
+      </c>
+      <c r="W57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>200</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>700</v>
       </c>
       <c r="Z57" s="3">
         <v>700</v>
@@ -4399,10 +4530,13 @@
         <v>700</v>
       </c>
       <c r="AC57" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4451,14 +4585,14 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
+      <c r="S58" s="3">
+        <v>0</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4484,44 +4618,47 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E59" s="3">
         <v>136000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>149000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>146000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>162000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>197000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>232000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>290000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>363000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>444000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>406000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4534,77 +4671,80 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>1100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1500</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>200</v>
       </c>
       <c r="Z59" s="3">
         <v>200</v>
       </c>
       <c r="AA59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB59" s="3">
         <v>300</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>200</v>
       </c>
       <c r="AC59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>271000</v>
+      </c>
+      <c r="E60" s="3">
         <v>309000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>326000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>333000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>352000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>449000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>518000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>858000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1035000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1332000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1191000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4617,41 +4757,44 @@
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3">
         <v>300</v>
-      </c>
-      <c r="T60" s="3">
-        <v>200</v>
       </c>
       <c r="U60" s="3">
         <v>200</v>
       </c>
       <c r="V60" s="3">
+        <v>200</v>
+      </c>
+      <c r="W60" s="3">
         <v>1200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1400</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>900</v>
       </c>
       <c r="Z60" s="3">
         <v>900</v>
       </c>
       <c r="AA60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB60" s="3">
         <v>1000</v>
       </c>
       <c r="AC60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4733,44 +4876,47 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E62" s="3">
         <v>13000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>13000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>31000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>38000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>220000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4783,8 +4929,8 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4792,14 +4938,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W62" s="3">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3">
         <v>400</v>
-      </c>
-      <c r="X62" s="3">
-        <v>500</v>
       </c>
       <c r="Y62" s="3">
         <v>500</v>
@@ -4811,13 +4957,16 @@
         <v>500</v>
       </c>
       <c r="AB62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AC62" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,44 +5220,47 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>282000</v>
+      </c>
+      <c r="E66" s="3">
         <v>322000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>337000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>346000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>366000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>465000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>536000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>889000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1069000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1370000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1411000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
@@ -5115,23 +5273,23 @@
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3">
         <v>300</v>
-      </c>
-      <c r="T66" s="3">
-        <v>200</v>
       </c>
       <c r="U66" s="3">
         <v>200</v>
       </c>
       <c r="V66" s="3">
+        <v>200</v>
+      </c>
+      <c r="W66" s="3">
         <v>1200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
-      </c>
-      <c r="X66" s="3">
-        <v>1400</v>
       </c>
       <c r="Y66" s="3">
         <v>1400</v>
@@ -5140,16 +5298,19 @@
         <v>1400</v>
       </c>
       <c r="AA66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AB66" s="3">
         <v>1500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5378,11 +5546,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>1536000</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,44 +5682,47 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3018000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2929000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2819000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2695000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2605000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2545000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2487000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2423000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2312000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2184000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1615000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5561,41 +5735,44 @@
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>-23800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-23300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-22300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-22800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-22000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-21400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-21200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-21000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-20500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-20100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,44 +6026,47 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>411000</v>
+      </c>
+      <c r="E76" s="3">
         <v>477000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>574000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>682000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>755000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>818000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>829000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>862000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>930000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1027000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1605000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5893,41 +6079,44 @@
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3">
         <v>8800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>12100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,170 +6198,176 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-110000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-124000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-90000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-60000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-58000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-64000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-111000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-128000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-569000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-99000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-124000</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-200</v>
       </c>
       <c r="Y81" s="3">
         <v>-200</v>
       </c>
       <c r="Z81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-500</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>-400</v>
       </c>
       <c r="AB81" s="3">
         <v>-400</v>
@@ -6180,8 +6375,11 @@
       <c r="AC81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6223,7 +6422,7 @@
         <v>1000</v>
       </c>
       <c r="F83" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="G83" s="3">
         <v>2000</v>
@@ -6235,17 +6434,17 @@
         <v>2000</v>
       </c>
       <c r="J83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K83" s="3">
         <v>3000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6261,8 +6460,8 @@
       <c r="R83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
@@ -6270,11 +6469,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W83" s="3">
-        <v>100</v>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X83" s="3">
         <v>100</v>
@@ -6289,13 +6488,16 @@
         <v>100</v>
       </c>
       <c r="AB83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,41 +6923,44 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-109000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-67000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-146000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-49000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-344000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-204000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-354000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-24000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>4</v>
       </c>
@@ -6759,41 +6976,44 @@
       <c r="R89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-700</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
       <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6838,26 +7059,26 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>-1000</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6873,8 +7094,8 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6882,14 +7103,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
+      <c r="V91" s="3">
+        <v>0</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -6904,10 +7125,13 @@
         <v>0</v>
       </c>
       <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,41 +7299,44 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E94" s="3">
         <v>38000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>14000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-105000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>18000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-16000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>14000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>88000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
@@ -7122,20 +7352,20 @@
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3">
         <v>-5000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3000</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
@@ -7153,10 +7383,13 @@
         <v>0</v>
       </c>
       <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,41 +7761,44 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-13000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>7000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>5000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1047000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7568,8 +7814,8 @@
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -7601,20 +7847,23 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E101" s="3">
         <v>3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8000</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
@@ -7627,8 +7876,8 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -7684,41 +7933,44 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-81000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-107000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-66000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-251000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-61000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-326000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-215000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-345000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1111000</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>4</v>
       </c>
@@ -7734,37 +7986,40 @@
       <c r="R102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3">
         <v>-5400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
   <si>
     <t>WISH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,184 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E8" s="3">
         <v>96000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>123000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>125000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>134000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>189000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>289000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>368000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>656000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>772000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>794000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>606000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>701000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>440000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>576000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>455000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>420000</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
@@ -848,8 +852,8 @@
       <c r="W8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X8" s="3">
-        <v>1400</v>
+      <c r="X8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y8" s="3">
         <v>1400</v>
@@ -858,72 +862,75 @@
         <v>1400</v>
       </c>
       <c r="AA8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="AB8" s="3">
         <v>1300</v>
       </c>
       <c r="AC8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="AD8" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E9" s="3">
         <v>76000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>97000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>91000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>92000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>125000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>169000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>201000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>272000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>335000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>342000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>241000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>208000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>156000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>188000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>109000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>74000</v>
-      </c>
-      <c r="T9" s="3">
-        <v>200</v>
       </c>
       <c r="U9" s="3">
         <v>200</v>
@@ -932,16 +939,16 @@
         <v>200</v>
       </c>
       <c r="W9" s="3">
+        <v>200</v>
+      </c>
+      <c r="X9" s="3">
         <v>400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>800</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>100</v>
       </c>
       <c r="AA9" s="3">
         <v>100</v>
@@ -950,66 +957,69 @@
         <v>100</v>
       </c>
       <c r="AC9" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="AD9" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E10" s="3">
         <v>20000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>26000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>34000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>42000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>64000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>120000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>167000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>384000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>437000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>452000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>365000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>493000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>284000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>388000</v>
-      </c>
-      <c r="R10" s="3">
-        <v>346000</v>
       </c>
       <c r="S10" s="3">
         <v>346000</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
+      <c r="T10" s="3">
+        <v>346000</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
@@ -1020,29 +1030,32 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3">
         <v>1100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1300</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>1200</v>
       </c>
       <c r="AB10" s="3">
         <v>1200</v>
       </c>
       <c r="AC10" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="AD10" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,62 +1086,63 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E12" s="3">
         <v>51000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>40000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>42000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>46000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>66000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>51000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>54000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>52000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>51000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>150000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>24000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>23000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>22000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>19000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>17000</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,38 +1262,41 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>4000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-5000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>6000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1292,29 +1312,29 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>400</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,142 +1472,146 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E17" s="3">
         <v>189000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>240000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>253000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>225000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>251000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>353000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>431000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>770000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>898000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1305000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>684000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3">
         <v>696000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-93000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-117000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-128000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-91000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-62000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-64000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-63000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-114000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-126000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-511000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-78000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-120000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1597,29 +1627,32 @@
       <c r="W18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3">
         <v>800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,56 +1683,57 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>4000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2000</v>
       </c>
       <c r="H20" s="3">
         <v>2000</v>
       </c>
       <c r="I20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J20" s="3">
         <v>5000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-57000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-20000</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="3">
         <v>-3000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1715,77 +1749,80 @@
       <c r="W20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>-1300</v>
       </c>
       <c r="AB20" s="3">
         <v>-1300</v>
       </c>
       <c r="AC20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-100</v>
       </c>
-      <c r="AD20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-88000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-111000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-121000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-87000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-58000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-57000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-58000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-103000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-124000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-565000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-113000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1810,20 +1847,23 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-300</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>-200</v>
       </c>
       <c r="AD21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,85 +1948,88 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-89000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-112000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-122000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-89000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-60000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-59000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-60000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-106000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-126000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-568000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-98000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-123000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>87000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>42000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-500</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>-400</v>
       </c>
       <c r="AC23" s="3">
         <v>-400</v>
@@ -1994,56 +2037,59 @@
       <c r="AD23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1000</v>
       </c>
       <c r="N24" s="3">
         <v>1000</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>1000</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,85 +2215,88 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-89000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-110000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-124000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-90000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-60000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-58000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-64000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-111000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-128000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-569000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-99000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3">
         <v>-124000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-500</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>-400</v>
       </c>
       <c r="AC26" s="3">
         <v>-400</v>
@@ -2252,85 +2304,88 @@
       <c r="AD26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-89000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-110000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-124000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-90000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-60000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-58000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-64000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-111000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-128000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-569000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-99000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="3">
         <v>-124000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-500</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>-400</v>
       </c>
       <c r="AC27" s="3">
         <v>-400</v>
@@ -2338,8 +2393,11 @@
       <c r="AD27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2484,34 +2545,37 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>1000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>200</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-      <c r="AC29" s="3" t="s">
-        <v>4</v>
+      <c r="AC29" s="3">
+        <v>0</v>
       </c>
       <c r="AD29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,56 +2749,59 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2000</v>
       </c>
       <c r="H32" s="3">
         <v>-2000</v>
       </c>
       <c r="I32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J32" s="3">
         <v>-5000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>57000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>20000</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R32" s="3">
         <v>3000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2747,106 +2817,109 @@
       <c r="W32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X32" s="3">
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="3">
         <v>1400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>1400</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>1300</v>
       </c>
       <c r="AB32" s="3">
         <v>1300</v>
       </c>
       <c r="AC32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AD32" s="3">
         <v>100</v>
       </c>
-      <c r="AD32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-89000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-110000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-124000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-90000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-60000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-58000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-64000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-111000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-128000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-569000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-99000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="3">
         <v>-124000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-200</v>
       </c>
       <c r="Z33" s="3">
         <v>-200</v>
       </c>
       <c r="AA33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-500</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>-400</v>
       </c>
       <c r="AC33" s="3">
         <v>-400</v>
@@ -2854,8 +2927,11 @@
       <c r="AD33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,85 +3016,88 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-89000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-110000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-124000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-90000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-60000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-58000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-64000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-111000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-128000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-569000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-99000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="3">
         <v>-124000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-200</v>
       </c>
       <c r="Z35" s="3">
         <v>-200</v>
       </c>
       <c r="AA35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-500</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>-400</v>
       </c>
       <c r="AC35" s="3">
         <v>-400</v>
@@ -3026,99 +3105,105 @@
       <c r="AD35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,47 +3267,48 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>318000</v>
+      </c>
+      <c r="E41" s="3">
         <v>371000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>506000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>587000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>693000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>760000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1009000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1072000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1405000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1620000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1965000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>844000</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3234,80 +3321,83 @@
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>9800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>6800</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>7000</v>
       </c>
       <c r="AD41" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>213000</v>
+      </c>
+      <c r="E42" s="3">
         <v>256000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>213000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>250000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>254000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>260000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>150000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>143000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>168000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>154000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>164000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>250000</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3320,23 +3410,23 @@
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U42" s="3">
         <v>8000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3000</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3353,47 +3443,50 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>5000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>13000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>12000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>14000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>27000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>46000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>65000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>83000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>67000</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3406,8 +3499,8 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>100</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
@@ -3419,7 +3512,7 @@
         <v>100</v>
       </c>
       <c r="X43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Y43" s="3">
         <v>300</v>
@@ -3437,10 +3530,13 @@
         <v>300</v>
       </c>
       <c r="AD43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,47 +3621,50 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E45" s="3">
         <v>39000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>40000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>41000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>45000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>48000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>73000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>71000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>88000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>102000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>85000</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3578,8 +3677,8 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>100</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -3588,70 +3687,73 @@
         <v>100</v>
       </c>
       <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
         <v>6000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>6300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>565000</v>
+      </c>
+      <c r="E46" s="3">
         <v>671000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>777000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>890000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1079000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1224000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1315000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1690000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1927000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2314000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1246000</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3664,49 +3766,52 @@
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="3">
         <v>9000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>11900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>7700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -3715,29 +3820,29 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
         <v>9000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>17000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>7000</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>4000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7000</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3753,11 +3858,11 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W47" s="3">
         <v>400</v>
@@ -3783,13 +3888,16 @@
       <c r="AD47" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18000</v>
+        <v>15000</v>
       </c>
       <c r="E48" s="3">
         <v>18000</v>
@@ -3798,32 +3906,32 @@
         <v>18000</v>
       </c>
       <c r="G48" s="3">
+        <v>18000</v>
+      </c>
+      <c r="H48" s="3">
         <v>24000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>35000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>37000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>51000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>62000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>68000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>67000</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3836,20 +3944,20 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X48" s="3">
-        <v>100</v>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y48" s="3">
         <v>100</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3931,32 +4042,35 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y49" s="3">
         <v>4900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5400</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4139,35 +4259,35 @@
         <v>4000</v>
       </c>
       <c r="F52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G52" s="3">
         <v>3000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>4000</v>
       </c>
       <c r="H52" s="3">
         <v>4000</v>
       </c>
       <c r="I52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J52" s="3">
         <v>7000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6000</v>
-      </c>
-      <c r="K52" s="3">
-        <v>10000</v>
       </c>
       <c r="L52" s="3">
         <v>10000</v>
       </c>
       <c r="M52" s="3">
+        <v>10000</v>
+      </c>
+      <c r="N52" s="3">
         <v>11000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>22000</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4180,8 +4300,8 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>100</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>100</v>
@@ -4196,10 +4316,10 @@
         <v>100</v>
       </c>
       <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z52" s="3">
         <v>200</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>100</v>
       </c>
       <c r="AA52" s="3">
         <v>100</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,47 +4422,50 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>584000</v>
+      </c>
+      <c r="E54" s="3">
         <v>693000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>799000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>911000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1028000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1121000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1283000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1365000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1751000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1999000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2397000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1342000</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
@@ -4352,41 +4478,44 @@
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3">
         <v>9100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>12800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>13300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>13700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,47 +4579,48 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E57" s="3">
         <v>151000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>173000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>177000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>187000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>190000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>252000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>286000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>568000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>672000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>888000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>785000</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
@@ -4502,8 +4633,8 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T57" s="3">
-        <v>200</v>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
@@ -4512,16 +4643,16 @@
         <v>200</v>
       </c>
       <c r="W57" s="3">
+        <v>200</v>
+      </c>
+      <c r="X57" s="3">
         <v>100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>200</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>700</v>
       </c>
       <c r="AA57" s="3">
         <v>700</v>
@@ -4533,10 +4664,13 @@
         <v>700</v>
       </c>
       <c r="AD57" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4588,14 +4722,14 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
+      <c r="T58" s="3">
+        <v>0</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4621,47 +4755,50 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E59" s="3">
         <v>120000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>136000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>149000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>146000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>162000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>197000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>232000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>290000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>363000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>444000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>406000</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4674,80 +4811,83 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
       <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1500</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>200</v>
       </c>
       <c r="AA59" s="3">
         <v>200</v>
       </c>
       <c r="AB59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC59" s="3">
         <v>300</v>
-      </c>
-      <c r="AC59" s="3">
-        <v>200</v>
       </c>
       <c r="AD59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>236000</v>
+      </c>
+      <c r="E60" s="3">
         <v>271000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>309000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>326000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>333000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>352000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>449000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>518000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>858000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1035000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1332000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1191000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4760,41 +4900,44 @@
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3">
         <v>300</v>
-      </c>
-      <c r="U60" s="3">
-        <v>200</v>
       </c>
       <c r="V60" s="3">
         <v>200</v>
       </c>
       <c r="W60" s="3">
+        <v>200</v>
+      </c>
+      <c r="X60" s="3">
         <v>1200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1400</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>900</v>
       </c>
       <c r="AA60" s="3">
         <v>900</v>
       </c>
       <c r="AB60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AC60" s="3">
         <v>1000</v>
       </c>
       <c r="AD60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4888,38 +5034,38 @@
         <v>11000</v>
       </c>
       <c r="E62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F62" s="3">
         <v>13000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>31000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>38000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>220000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4932,8 +5078,8 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4941,14 +5087,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="3">
         <v>400</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>500</v>
       </c>
       <c r="Z62" s="3">
         <v>500</v>
@@ -4960,13 +5106,16 @@
         <v>500</v>
       </c>
       <c r="AC62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AD62" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,47 +5378,50 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E66" s="3">
         <v>282000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>322000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>337000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>346000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>366000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>465000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>536000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>889000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1069000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1370000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1411000</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
@@ -5276,23 +5434,23 @@
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3">
         <v>300</v>
-      </c>
-      <c r="U66" s="3">
-        <v>200</v>
       </c>
       <c r="V66" s="3">
         <v>200</v>
       </c>
       <c r="W66" s="3">
+        <v>200</v>
+      </c>
+      <c r="X66" s="3">
         <v>1200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>1400</v>
       </c>
       <c r="Z66" s="3">
         <v>1400</v>
@@ -5301,16 +5459,19 @@
         <v>1400</v>
       </c>
       <c r="AB66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AC66" s="3">
         <v>1500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5549,11 +5717,11 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>1536000</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,47 +5856,50 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3098000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3018000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2929000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2819000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2695000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2605000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2545000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2487000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2423000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2312000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2184000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1615000</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5738,41 +5912,44 @@
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>-23800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-23300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-22300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-22800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-22000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-21400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-21200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-21000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-20500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-20100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,47 +6212,50 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E76" s="3">
         <v>411000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>477000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>574000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>682000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>755000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>818000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>829000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>862000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>930000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1027000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1605000</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
@@ -6082,41 +6268,44 @@
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3">
         <v>8800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>11700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>12100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,176 +6390,182 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-89000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-110000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-124000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-90000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-60000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-58000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-64000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-111000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-128000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-569000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-99000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="3">
         <v>-124000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-200</v>
       </c>
       <c r="Z81" s="3">
         <v>-200</v>
       </c>
       <c r="AA81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-500</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>-400</v>
       </c>
       <c r="AC81" s="3">
         <v>-400</v>
@@ -6378,8 +6573,11 @@
       <c r="AD81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6425,7 +6624,7 @@
         <v>1000</v>
       </c>
       <c r="G83" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H83" s="3">
         <v>2000</v>
@@ -6437,17 +6636,17 @@
         <v>2000</v>
       </c>
       <c r="K83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L83" s="3">
         <v>3000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6463,8 +6662,8 @@
       <c r="S83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
@@ -6472,11 +6671,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X83" s="3">
-        <v>100</v>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y83" s="3">
         <v>100</v>
@@ -6491,13 +6690,16 @@
         <v>100</v>
       </c>
       <c r="AC83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,44 +7140,47 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-92000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-109000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-67000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-146000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-49000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-344000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-204000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-354000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-24000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>4</v>
       </c>
@@ -6979,41 +7196,44 @@
       <c r="S89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-700</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-200</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
       <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,13 +7264,14 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -7062,26 +7283,26 @@
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-2000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1000</v>
       </c>
       <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>-1000</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
@@ -7097,8 +7318,8 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -7106,14 +7327,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -7128,10 +7349,13 @@
         <v>0</v>
       </c>
       <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,44 +7529,47 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-40000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>38000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>14000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-105000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>18000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>14000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>88000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
@@ -7355,20 +7585,20 @@
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U94" s="3">
         <v>-5000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3000</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
@@ -7386,10 +7616,13 @@
         <v>0</v>
       </c>
       <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,44 +8007,47 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-13000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>7000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>5000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1047000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7817,8 +8063,8 @@
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -7850,23 +8096,26 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-8000</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
@@ -7879,8 +8128,8 @@
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -7936,44 +8185,47 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-134000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-81000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-107000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-66000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-251000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-61000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-326000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-215000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-345000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1111000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>4</v>
       </c>
@@ -7989,37 +8241,40 @@
       <c r="S102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3">
         <v>-5400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-200</v>
       </c>
-      <c r="AC102" s="3">
-        <v>0</v>
-      </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>-500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WISH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
   <si>
     <t>WISH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,187 +665,191 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E8" s="3">
         <v>78000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>96000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>123000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>125000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>134000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>189000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>289000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>368000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>656000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>772000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>794000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>606000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>701000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>440000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>576000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>455000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>420000</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
@@ -855,8 +859,8 @@
       <c r="X8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y8" s="3">
-        <v>1400</v>
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z8" s="3">
         <v>1400</v>
@@ -865,75 +869,78 @@
         <v>1400</v>
       </c>
       <c r="AB8" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="AC8" s="3">
         <v>1300</v>
       </c>
       <c r="AD8" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="AE8" s="3">
         <v>1400</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E9" s="3">
         <v>62000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>76000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>97000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>91000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>92000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>125000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>169000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>201000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>272000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>335000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>342000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>241000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>208000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>156000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>188000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>109000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>74000</v>
-      </c>
-      <c r="U9" s="3">
-        <v>200</v>
       </c>
       <c r="V9" s="3">
         <v>200</v>
@@ -942,16 +949,16 @@
         <v>200</v>
       </c>
       <c r="X9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y9" s="3">
         <v>400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>800</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>100</v>
       </c>
       <c r="AB9" s="3">
         <v>100</v>
@@ -960,69 +967,72 @@
         <v>100</v>
       </c>
       <c r="AD9" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="AE9" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E10" s="3">
         <v>16000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>20000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>26000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>34000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>42000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>64000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>120000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>167000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>384000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>437000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>452000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>365000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>493000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>284000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>388000</v>
-      </c>
-      <c r="S10" s="3">
-        <v>346000</v>
       </c>
       <c r="T10" s="3">
         <v>346000</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
+      <c r="U10" s="3">
+        <v>346000</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
@@ -1033,29 +1043,32 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3">
         <v>1100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1300</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>1200</v>
       </c>
       <c r="AC10" s="3">
         <v>1200</v>
       </c>
       <c r="AD10" s="3">
-        <v>500</v>
+        <v>1200</v>
       </c>
       <c r="AE10" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1096,56 +1110,56 @@
         <v>38000</v>
       </c>
       <c r="E12" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F12" s="3">
         <v>51000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>40000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>42000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>46000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>66000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>51000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>54000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>52000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>51000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>150000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>24000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>23000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>24000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>22000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>19000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>17000</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,41 +1282,44 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-5000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>6000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1315,29 +1335,29 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>400</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,148 +1499,152 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E17" s="3">
         <v>161000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>189000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>240000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>253000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>225000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>251000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>353000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>431000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>770000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>898000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1305000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>684000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3">
         <v>696000</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1700</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-83000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-93000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-117000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-128000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-91000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-62000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-64000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-63000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-114000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-126000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-511000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-78000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-120000</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1630,29 +1660,32 @@
       <c r="X18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3">
         <v>800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>900</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-300</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,59 +1717,60 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>2000</v>
       </c>
       <c r="I20" s="3">
         <v>2000</v>
       </c>
       <c r="J20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K20" s="3">
         <v>5000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8000</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-57000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-20000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
         <v>-3000</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1752,29 +1786,32 @@
       <c r="X20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1400</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>-1300</v>
       </c>
       <c r="AC20" s="3">
         <v>-1300</v>
       </c>
       <c r="AD20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-100</v>
       </c>
-      <c r="AE20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,50 +1819,50 @@
         <v>-76000</v>
       </c>
       <c r="E21" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-88000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-111000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-121000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-87000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-58000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-57000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-58000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-103000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-124000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-565000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-113000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1850,20 +1887,23 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-300</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>-200</v>
       </c>
       <c r="AE21" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,8 +1991,11 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1960,79 +2003,79 @@
         <v>-77000</v>
       </c>
       <c r="E23" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-89000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-112000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-122000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-89000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-60000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-59000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-60000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-106000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-126000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-568000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-98000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-66000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-123000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>87000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>42000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-500</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>-400</v>
       </c>
       <c r="AD23" s="3">
         <v>-400</v>
@@ -2040,8 +2083,11 @@
       <c r="AE23" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2049,50 +2095,50 @@
         <v>3000</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-2000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1000</v>
       </c>
       <c r="O24" s="3">
         <v>1000</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>1000</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,8 +2267,11 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2227,79 +2279,79 @@
         <v>-80000</v>
       </c>
       <c r="E26" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-89000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-110000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-124000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-90000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-60000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-58000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-64000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-111000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-128000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-569000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-99000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="3">
         <v>-124000</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V26" s="3">
         <v>-500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-500</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>-400</v>
       </c>
       <c r="AD26" s="3">
         <v>-400</v>
@@ -2307,8 +2359,11 @@
       <c r="AE26" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2316,79 +2371,79 @@
         <v>-80000</v>
       </c>
       <c r="E27" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-89000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-110000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-124000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-90000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-60000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-58000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-64000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-111000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-128000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-569000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-99000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3">
         <v>-124000</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V27" s="3">
         <v>-500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-500</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>-400</v>
       </c>
       <c r="AD27" s="3">
         <v>-400</v>
@@ -2396,8 +2451,11 @@
       <c r="AE27" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2548,34 +2609,37 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>1000</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>200</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>100</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>200</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-      <c r="AD29" s="3" t="s">
-        <v>4</v>
+      <c r="AD29" s="3">
+        <v>0</v>
       </c>
       <c r="AE29" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,59 +2819,62 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-2000</v>
       </c>
       <c r="I32" s="3">
         <v>-2000</v>
       </c>
       <c r="J32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8000</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>57000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>20000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
         <v>3000</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2820,29 +2890,32 @@
       <c r="X32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z32" s="3">
         <v>1400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1400</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>1300</v>
       </c>
       <c r="AC32" s="3">
         <v>1300</v>
       </c>
       <c r="AD32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AE32" s="3">
         <v>100</v>
       </c>
-      <c r="AE32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2850,79 +2923,79 @@
         <v>-80000</v>
       </c>
       <c r="E33" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-89000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-110000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-124000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-90000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-60000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-58000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-64000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-111000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-128000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-569000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-99000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3">
         <v>-124000</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="3">
         <v>-500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-200</v>
       </c>
       <c r="AA33" s="3">
         <v>-200</v>
       </c>
       <c r="AB33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-500</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>-400</v>
       </c>
       <c r="AD33" s="3">
         <v>-400</v>
@@ -2930,8 +3003,11 @@
       <c r="AE33" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,8 +3095,11 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -3028,79 +3107,79 @@
         <v>-80000</v>
       </c>
       <c r="E35" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-89000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-110000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-124000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-90000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-60000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-58000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-64000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-111000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-128000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-569000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-99000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3">
         <v>-124000</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V35" s="3">
         <v>-500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-200</v>
       </c>
       <c r="AA35" s="3">
         <v>-200</v>
       </c>
       <c r="AB35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-500</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>-400</v>
       </c>
       <c r="AD35" s="3">
         <v>-400</v>
@@ -3108,102 +3187,108 @@
       <c r="AE35" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,50 +3354,51 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E41" s="3">
         <v>318000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>371000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>506000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>587000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>693000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>760000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1009000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1072000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1405000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1620000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1965000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>844000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3324,83 +3411,86 @@
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3">
         <v>700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>9800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>6500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>6800</v>
-      </c>
-      <c r="AD41" s="3">
-        <v>7000</v>
       </c>
       <c r="AE41" s="3">
         <v>7000</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E42" s="3">
         <v>213000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>256000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>213000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>250000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>254000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>260000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>150000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>143000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>168000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>154000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>164000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>250000</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3413,23 +3503,23 @@
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V42" s="3">
         <v>8000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3000</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
@@ -3446,50 +3536,53 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>14000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>13000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>12000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>14000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>46000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>65000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>83000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>67000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3502,8 +3595,8 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
@@ -3515,7 +3608,7 @@
         <v>100</v>
       </c>
       <c r="Y43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Z43" s="3">
         <v>300</v>
@@ -3533,10 +3626,13 @@
         <v>300</v>
       </c>
       <c r="AE43" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF43" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,50 +3720,53 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E45" s="3">
         <v>30000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>39000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>40000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>41000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>45000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>48000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>73000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>71000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>88000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>102000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>85000</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3680,8 +3779,8 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>100</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
@@ -3690,73 +3789,76 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>6000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>6300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>200</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>400</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>478000</v>
+      </c>
+      <c r="E46" s="3">
         <v>565000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>671000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>777000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>890000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1079000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1224000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1315000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1690000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1927000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2314000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1246000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3769,41 +3871,44 @@
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" s="3">
         <v>9000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>10500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>11900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>7400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>7700</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3813,8 +3918,8 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -3823,29 +3928,29 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>9000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>17000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7000</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>4000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3861,11 +3966,11 @@
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W47" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X47" s="3">
         <v>400</v>
@@ -3891,16 +3996,19 @@
       <c r="AE47" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E48" s="3">
         <v>15000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>18000</v>
       </c>
       <c r="F48" s="3">
         <v>18000</v>
@@ -3909,32 +4017,32 @@
         <v>18000</v>
       </c>
       <c r="H48" s="3">
+        <v>18000</v>
+      </c>
+      <c r="I48" s="3">
         <v>24000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>35000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>37000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>51000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>62000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>68000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>67000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3947,20 +4055,20 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3">
         <v>100</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y48" s="3">
-        <v>100</v>
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z48" s="3">
         <v>100</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4045,32 +4156,35 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z49" s="3">
         <v>4900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5400</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4262,35 +4382,35 @@
         <v>4000</v>
       </c>
       <c r="G52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H52" s="3">
         <v>3000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>4000</v>
       </c>
       <c r="I52" s="3">
         <v>4000</v>
       </c>
       <c r="J52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K52" s="3">
         <v>7000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>10000</v>
       </c>
       <c r="M52" s="3">
         <v>10000</v>
       </c>
       <c r="N52" s="3">
+        <v>10000</v>
+      </c>
+      <c r="O52" s="3">
         <v>11000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>22000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4303,8 +4423,8 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U52" s="3">
-        <v>100</v>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>100</v>
@@ -4319,10 +4439,10 @@
         <v>100</v>
       </c>
       <c r="Z52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA52" s="3">
         <v>200</v>
-      </c>
-      <c r="AA52" s="3">
-        <v>100</v>
       </c>
       <c r="AB52" s="3">
         <v>100</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,50 +4548,53 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>492000</v>
+      </c>
+      <c r="E54" s="3">
         <v>584000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>693000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>799000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>911000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1028000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1121000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1283000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1365000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1751000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1999000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2397000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1342000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
@@ -4481,41 +4607,44 @@
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="3">
         <v>9100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>12600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>12800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>13300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>13700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>14100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,50 +4710,51 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E57" s="3">
         <v>123000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>151000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>173000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>177000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>187000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>190000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>252000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>286000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>568000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>672000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>888000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>785000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
@@ -4636,8 +4767,8 @@
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U57" s="3">
-        <v>200</v>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V57" s="3">
         <v>200</v>
@@ -4646,16 +4777,16 @@
         <v>200</v>
       </c>
       <c r="X57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>200</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>700</v>
       </c>
       <c r="AB57" s="3">
         <v>700</v>
@@ -4667,10 +4798,13 @@
         <v>700</v>
       </c>
       <c r="AE57" s="3">
+        <v>700</v>
+      </c>
+      <c r="AF57" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4725,14 +4859,14 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
+      <c r="U58" s="3">
+        <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4758,50 +4892,53 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E59" s="3">
         <v>113000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>120000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>136000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>149000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>146000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>162000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>197000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>232000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>290000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>363000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>444000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>406000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4814,83 +4951,86 @@
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
       <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1500</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>200</v>
       </c>
       <c r="AB59" s="3">
         <v>200</v>
       </c>
       <c r="AC59" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD59" s="3">
         <v>300</v>
-      </c>
-      <c r="AD59" s="3">
-        <v>200</v>
       </c>
       <c r="AE59" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E60" s="3">
         <v>236000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>271000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>309000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>326000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>333000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>352000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>449000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>518000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>858000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1035000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1332000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1191000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4903,41 +5043,44 @@
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3">
         <v>300</v>
-      </c>
-      <c r="V60" s="3">
-        <v>200</v>
       </c>
       <c r="W60" s="3">
         <v>200</v>
       </c>
       <c r="X60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1400</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>900</v>
       </c>
       <c r="AB60" s="3">
         <v>900</v>
       </c>
       <c r="AC60" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AD60" s="3">
         <v>1000</v>
       </c>
       <c r="AE60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AF60" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5037,38 +5183,38 @@
         <v>11000</v>
       </c>
       <c r="F62" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G62" s="3">
         <v>13000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>31000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>38000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>220000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
@@ -5081,8 +5227,8 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -5090,14 +5236,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y62" s="3">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="3">
         <v>400</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>500</v>
       </c>
       <c r="AA62" s="3">
         <v>500</v>
@@ -5109,13 +5255,16 @@
         <v>500</v>
       </c>
       <c r="AD62" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE62" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,50 +5536,53 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E66" s="3">
         <v>247000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>282000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>322000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>337000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>346000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>366000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>465000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>536000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>889000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1069000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1370000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1411000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
@@ -5437,23 +5595,23 @@
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3">
         <v>300</v>
-      </c>
-      <c r="V66" s="3">
-        <v>200</v>
       </c>
       <c r="W66" s="3">
         <v>200</v>
       </c>
       <c r="X66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1300</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>1400</v>
       </c>
       <c r="AA66" s="3">
         <v>1400</v>
@@ -5462,16 +5620,19 @@
         <v>1400</v>
       </c>
       <c r="AC66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD66" s="3">
         <v>1500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5720,11 +5888,11 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>1536000</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,50 +6030,53 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3178000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3098000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3018000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2929000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2819000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2695000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2605000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2545000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2487000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2423000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2312000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2184000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1615000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5915,41 +6089,44 @@
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3">
         <v>-23800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-23300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-22300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-22800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-22000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-21400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-21200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-21000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-20500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-20100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-19700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,50 +6398,53 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>272000</v>
+      </c>
+      <c r="E76" s="3">
         <v>337000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>411000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>477000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>574000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>682000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>755000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>818000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>829000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>862000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>930000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1027000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1605000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
@@ -6271,41 +6457,44 @@
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3">
         <v>8800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>11000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>11200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>11300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>11700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>12100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,102 +6582,108 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6496,79 +6691,79 @@
         <v>-80000</v>
       </c>
       <c r="E81" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-89000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-110000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-124000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-90000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-60000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-58000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-64000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-111000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-128000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-569000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-99000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="3">
         <v>-124000</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V81" s="3">
         <v>-500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-200</v>
       </c>
       <c r="AA81" s="3">
         <v>-200</v>
       </c>
       <c r="AB81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-500</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>-400</v>
       </c>
       <c r="AD81" s="3">
         <v>-400</v>
@@ -6576,8 +6771,11 @@
       <c r="AE81" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6627,7 +6826,7 @@
         <v>1000</v>
       </c>
       <c r="H83" s="3">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I83" s="3">
         <v>2000</v>
@@ -6639,17 +6838,17 @@
         <v>2000</v>
       </c>
       <c r="L83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M83" s="3">
         <v>3000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3000</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
@@ -6665,8 +6864,8 @@
       <c r="T83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -6674,11 +6873,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>100</v>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z83" s="3">
         <v>100</v>
@@ -6693,13 +6892,16 @@
         <v>100</v>
       </c>
       <c r="AD83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AE83" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,47 +7357,50 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-88000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-92000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-109000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-67000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-146000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-49000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-344000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-204000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-354000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-24000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>4</v>
       </c>
@@ -7199,41 +7416,44 @@
       <c r="T89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-700</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-200</v>
       </c>
-      <c r="AD89" s="3">
-        <v>0</v>
-      </c>
       <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,17 +7485,18 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3000</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -7286,26 +7507,26 @@
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1000</v>
       </c>
       <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>-1000</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
@@ -7321,8 +7542,8 @@
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -7330,14 +7551,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
+      <c r="X91" s="3">
+        <v>0</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA91" s="3">
         <v>0</v>
@@ -7352,10 +7573,13 @@
         <v>0</v>
       </c>
       <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,47 +7759,50 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E94" s="3">
         <v>43000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-40000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>38000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>14000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-105000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>18000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>14000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>88000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
@@ -7588,20 +7818,20 @@
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3">
         <v>-5000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3000</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
@@ -7619,10 +7849,13 @@
         <v>0</v>
       </c>
       <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8019,38 +8265,38 @@
         <v>-1000</v>
       </c>
       <c r="E100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-4000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>7000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>5000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1047000</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
@@ -8066,8 +8312,8 @@
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -8099,26 +8345,29 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-8000</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
       </c>
@@ -8131,8 +8380,8 @@
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -8188,47 +8437,50 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-54000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-134000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-81000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-107000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-66000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-251000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-61000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-326000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-215000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-345000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1111000</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>4</v>
       </c>
@@ -8244,37 +8496,40 @@
       <c r="T102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V102" s="3">
         <v>-5400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-200</v>
       </c>
-      <c r="AD102" s="3">
-        <v>0</v>
-      </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>-500</v>
       </c>
     </row>
